--- a/__data__/monster_data_analysis.xlsx
+++ b/__data__/monster_data_analysis.xlsx
@@ -130,31 +130,31 @@
     <t>Knight B</t>
   </si>
   <si>
+    <t>Green Slime A</t>
+  </si>
+  <si>
+    <t>Vampire Bat B</t>
+  </si>
+  <si>
+    <t>Magician B</t>
+  </si>
+  <si>
+    <t>Magician A</t>
+  </si>
+  <si>
+    <t>Magic Sergeant B</t>
+  </si>
+  <si>
+    <t>Dark Knight B</t>
+  </si>
+  <si>
+    <t>Gate-Keeper A</t>
+  </si>
+  <si>
+    <t>Red Slime A</t>
+  </si>
+  <si>
     <t>Slimelord</t>
-  </si>
-  <si>
-    <t>Vampire Bat B</t>
-  </si>
-  <si>
-    <t>Magician B</t>
-  </si>
-  <si>
-    <t>Magician A</t>
-  </si>
-  <si>
-    <t>Magic Sergeant B</t>
-  </si>
-  <si>
-    <t>Dark Knight B</t>
-  </si>
-  <si>
-    <t>Gate-Keeper A</t>
-  </si>
-  <si>
-    <t>Green Slime A</t>
-  </si>
-  <si>
-    <t>Red Slime A</t>
   </si>
   <si>
     <t>Dark Priest</t>
@@ -253,12 +253,18 @@
       <name val="宋体"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor auto="1"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -271,16 +277,16 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -297,13 +303,13 @@
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -323,6 +329,7 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
@@ -522,17 +529,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -560,10 +567,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -811,12 +818,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1103,7 +1110,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1131,10 +1138,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">

--- a/__data__/monster_data_analysis.xlsx
+++ b/__data__/monster_data_analysis.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python workspace\magic_tower_infinity\Magic_tower_infinite\__data__\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="0" yWindow="45" windowWidth="15960" windowHeight="18075"/>
   </bookViews>
   <sheets>
-    <sheet name="monster_data" sheetId="1" r:id="rId4"/>
+    <sheet name="monster_data" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
   <si>
     <t>Monster</t>
   </si>
@@ -232,25 +240,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="宋体"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color indexed="8"/>
+      <sz val="9"/>
       <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="3">
@@ -292,52 +293,113 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="5">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office 主题">
       <a:dk1>
@@ -539,7 +601,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -558,7 +620,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -588,7 +650,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -614,7 +676,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -640,7 +702,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -666,7 +728,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -692,7 +754,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -718,7 +780,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -744,7 +806,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -770,7 +832,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -796,7 +858,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -809,9 +871,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -828,7 +896,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -847,7 +915,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -873,7 +941,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -899,7 +967,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -925,7 +993,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -951,7 +1019,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -977,7 +1045,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1003,7 +1071,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1029,7 +1097,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1055,7 +1123,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1081,7 +1149,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1094,9 +1162,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1110,7 +1184,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1129,7 +1203,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1159,7 +1233,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1185,7 +1259,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1211,7 +1285,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1237,7 +1311,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1263,7 +1337,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1289,7 +1363,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1315,7 +1389,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1341,7 +1415,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1367,7 +1441,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1380,89 +1454,86 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:O55"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:IV55"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83333" defaultRowHeight="13.5" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="32.3516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85156" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.85156" style="1" customWidth="1"/>
-    <col min="4" max="4" width="8.85156" style="1" customWidth="1"/>
-    <col min="5" max="5" width="8.85156" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85156" style="1" customWidth="1"/>
-    <col min="7" max="7" width="8.85156" style="1" customWidth="1"/>
-    <col min="8" max="8" width="12.1719" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.85156" style="1" customWidth="1"/>
-    <col min="10" max="10" width="8.85156" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.85156" style="1" customWidth="1"/>
-    <col min="12" max="12" width="8.85156" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.85156" style="1" customWidth="1"/>
-    <col min="14" max="14" width="8.85156" style="1" customWidth="1"/>
-    <col min="15" max="15" width="8.85156" style="1" customWidth="1"/>
-    <col min="16" max="256" width="8.85156" style="1" customWidth="1"/>
+    <col min="1" max="1" width="32.375" style="1" customWidth="1"/>
+    <col min="2" max="7" width="8.875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="1" customWidth="1"/>
+    <col min="9" max="256" width="8.875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="16" customHeight="1">
-      <c r="A1" t="s" s="2">
+    <row r="1" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="2">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="2">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="2">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="2">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s" s="2">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s" s="2">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s" s="2">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s" s="2">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" t="s" s="2">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
       <c r="O1" s="3"/>
     </row>
-    <row r="2" ht="16" customHeight="1">
-      <c r="A2" t="s" s="2">
+    <row r="2" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2" t="s">
         <v>14</v>
       </c>
       <c r="B2" s="4">
@@ -1487,11 +1558,11 @@
         <v>1</v>
       </c>
       <c r="I2" s="4">
-        <f>B2/($M$7-D2)*(C2-$N$7)</f>
-        <v>31.11111111111111</v>
+        <f t="shared" ref="I2:I9" si="0">B2/($M$7-D2)*(C2-$N$7)</f>
+        <v>31.111111111111111</v>
       </c>
       <c r="J2" s="4">
-        <f>B2/($M$8-D2)*(C2-$N$8)</f>
+        <f t="shared" ref="J2:J9" si="1">B2/($M$8-D2)*(C2-$N$8)</f>
         <v>-17.5</v>
       </c>
       <c r="K2" s="4">
@@ -1499,22 +1570,22 @@
       </c>
       <c r="L2" s="4">
         <f>AVERAGE(B2:B8)</f>
-        <v>47.14285714285715</v>
+        <v>47.142857142857146</v>
       </c>
       <c r="M2" s="4">
         <f>AVERAGE(C2:C8)</f>
-        <v>35.71428571428572</v>
+        <v>35.714285714285715</v>
       </c>
       <c r="N2" s="4">
         <f>AVERAGE(D2:D8)</f>
-        <v>7.714285714285714</v>
+        <v>7.7142857142857144</v>
       </c>
       <c r="O2" s="4">
         <v>1</v>
       </c>
     </row>
-    <row r="3" ht="16" customHeight="1">
-      <c r="A3" t="s" s="2">
+    <row r="3" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>15</v>
       </c>
       <c r="B3" s="4">
@@ -1539,23 +1610,23 @@
         <v>1</v>
       </c>
       <c r="I3" s="4">
-        <f>B3/($M$7-D3)*(C3-$N$7)</f>
+        <f t="shared" si="0"/>
         <v>56.25</v>
       </c>
       <c r="J3" s="4">
-        <f>B3/($M$8-D3)*(C3-$N$8)</f>
-        <v>-20.45454545454545</v>
+        <f t="shared" si="1"/>
+        <v>-20.454545454545453</v>
       </c>
       <c r="K3" s="4">
         <v>1</v>
       </c>
       <c r="L3" s="4">
         <f>AVERAGE(B10:B15)</f>
-        <v>148.3333333333333</v>
+        <v>148.33333333333334</v>
       </c>
       <c r="M3" s="4">
         <f>AVERAGE(C10:C15)</f>
-        <v>93.33333333333333</v>
+        <v>93.333333333333329</v>
       </c>
       <c r="N3" s="4">
         <f>AVERAGE(D10:D15)</f>
@@ -1565,8 +1636,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="16" customHeight="1">
-      <c r="A4" t="s" s="2">
+    <row r="4" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B4" s="4">
@@ -1591,11 +1662,11 @@
         <v>1</v>
       </c>
       <c r="I4" s="4">
-        <f>B4/($M$7-D4)*(C4-$N$7)</f>
+        <f t="shared" si="0"/>
         <v>140</v>
       </c>
       <c r="J4" s="4">
-        <f>B4/($M$8-D4)*(C4-$N$8)</f>
+        <f t="shared" si="1"/>
         <v>3.28125</v>
       </c>
       <c r="K4" s="4">
@@ -1603,7 +1674,7 @@
       </c>
       <c r="L4" s="4">
         <f>AVERAGE(B17:B22)</f>
-        <v>183.3333333333333</v>
+        <v>183.33333333333334</v>
       </c>
       <c r="M4" s="4">
         <f>AVERAGE(C17:C20,C22)</f>
@@ -1611,14 +1682,14 @@
       </c>
       <c r="N4" s="4">
         <f>AVERAGE(D17:D22)</f>
-        <v>60.83333333333334</v>
+        <v>60.833333333333336</v>
       </c>
       <c r="O4" s="4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" ht="16" customHeight="1">
-      <c r="A5" t="s" s="2">
+    <row r="5" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2" t="s">
         <v>17</v>
       </c>
       <c r="B5" s="4">
@@ -1643,11 +1714,11 @@
         <v>1</v>
       </c>
       <c r="I5" s="4">
-        <f>B5/($M$7-D5)*(C5-$N$7)</f>
+        <f t="shared" si="0"/>
         <v>660</v>
       </c>
       <c r="J5" s="4">
-        <f>B5/($M$8-D5)*(C5-$N$8)</f>
+        <f t="shared" si="1"/>
         <v>-6.666666666666667</v>
       </c>
       <c r="K5" s="4">
@@ -1659,18 +1730,18 @@
       </c>
       <c r="M5" s="4">
         <f>AVERAGE(C23:C28)</f>
-        <v>366.6666666666667</v>
+        <v>366.66666666666669</v>
       </c>
       <c r="N5" s="4">
         <f>AVERAGE(D23:D28)</f>
-        <v>95.83333333333333</v>
+        <v>95.833333333333329</v>
       </c>
       <c r="O5" s="4">
         <v>4</v>
       </c>
     </row>
-    <row r="6" ht="16" customHeight="1">
-      <c r="A6" t="s" s="2">
+    <row r="6" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B6" s="4">
@@ -1695,27 +1766,27 @@
         <v>1</v>
       </c>
       <c r="I6" s="4">
-        <f>B6/($M$7-D6)*(C6-$N$7)</f>
+        <f t="shared" si="0"/>
         <v>400</v>
       </c>
       <c r="J6" s="4">
-        <f>B6/($M$8-D6)*(C6-$N$8)</f>
-        <v>12.06896551724138</v>
+        <f t="shared" si="1"/>
+        <v>12.068965517241379</v>
       </c>
       <c r="K6" s="4">
         <v>1</v>
       </c>
       <c r="L6" s="3"/>
-      <c r="M6" t="s" s="2">
+      <c r="M6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="N6" t="s" s="2">
+      <c r="N6" s="2" t="s">
         <v>20</v>
       </c>
       <c r="O6" s="3"/>
     </row>
-    <row r="7" ht="16" customHeight="1">
-      <c r="A7" t="s" s="2">
+    <row r="7" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="4">
@@ -1740,12 +1811,12 @@
         <v>1</v>
       </c>
       <c r="I7" s="4">
-        <f>B7/($M$7-D7)*(C7-$N$7)</f>
+        <f t="shared" si="0"/>
         <v>-1155</v>
       </c>
       <c r="J7" s="4">
-        <f>B7/($M$8-D7)*(C7-$N$8)</f>
-        <v>40.65217391304348</v>
+        <f t="shared" si="1"/>
+        <v>40.652173913043477</v>
       </c>
       <c r="K7" s="4">
         <v>1</v>
@@ -1761,8 +1832,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" ht="16" customHeight="1">
-      <c r="A8" t="s" s="2">
+    <row r="8" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2" t="s">
         <v>22</v>
       </c>
       <c r="B8" s="4">
@@ -1787,11 +1858,11 @@
         <v>1</v>
       </c>
       <c r="I8" s="4">
-        <f>B8/($M$7-D8)*(C8-$N$7)</f>
-        <v>-158.3333333333333</v>
+        <f t="shared" si="0"/>
+        <v>-158.33333333333334</v>
       </c>
       <c r="J8" s="4">
-        <f>B8/($M$8-D8)*(C8-$N$8)</f>
+        <f t="shared" si="1"/>
         <v>50</v>
       </c>
       <c r="K8" s="4">
@@ -1808,8 +1879,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" ht="16" customHeight="1">
-      <c r="A9" t="s" s="2">
+    <row r="9" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="4">
@@ -1821,10 +1892,10 @@
       <c r="D9" s="4">
         <v>15</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G9" s="4">
@@ -1834,11 +1905,11 @@
         <v>1</v>
       </c>
       <c r="I9" s="4">
-        <f>B9/($M$7-D9)*(C9-$N$7)</f>
+        <f t="shared" si="0"/>
         <v>-1100</v>
       </c>
       <c r="J9" s="4">
-        <f>B9/($M$8-D9)*(C9-$N$8)</f>
+        <f t="shared" si="1"/>
         <v>150</v>
       </c>
       <c r="K9" s="4">
@@ -1855,8 +1926,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" ht="16" customHeight="1">
-      <c r="A10" t="s" s="2">
+    <row r="10" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B10" s="4">
@@ -1881,12 +1952,12 @@
         <v>1</v>
       </c>
       <c r="I10" s="4">
-        <f>B10/($M$8-D10)*(C10-$N$8)</f>
+        <f t="shared" ref="I10:I16" si="2">B10/($M$8-D10)*(C10-$N$8)</f>
         <v>101.5625</v>
       </c>
       <c r="J10" s="4">
-        <f>B10/($M$9-D10)*(C10-$N$9)</f>
-        <v>-39.63414634146341</v>
+        <f t="shared" ref="J10:J16" si="3">B10/($M$9-D10)*(C10-$N$9)</f>
+        <v>-39.634146341463413</v>
       </c>
       <c r="K10" s="4">
         <v>2</v>
@@ -1902,8 +1973,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" ht="16" customHeight="1">
-      <c r="A11" t="s" s="2">
+    <row r="11" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B11" s="4">
@@ -1928,12 +1999,12 @@
         <v>1</v>
       </c>
       <c r="I11" s="4">
-        <f>B11/($M$8-D11)*(C11-$N$8)</f>
-        <v>144.4444444444445</v>
+        <f t="shared" si="2"/>
+        <v>144.44444444444446</v>
       </c>
       <c r="J11" s="4">
-        <f>B11/($M$9-D11)*(C11-$N$9)</f>
-        <v>11.68831168831169</v>
+        <f t="shared" si="3"/>
+        <v>11.688311688311689</v>
       </c>
       <c r="K11" s="4">
         <v>2</v>
@@ -1949,8 +2020,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" ht="16" customHeight="1">
-      <c r="A12" t="s" s="2">
+    <row r="12" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B12" s="4">
@@ -1975,11 +2046,11 @@
         <v>1</v>
       </c>
       <c r="I12" s="4">
-        <f>B12/($M$8-D12)*(C12-$N$8)</f>
+        <f t="shared" si="2"/>
         <v>1200</v>
       </c>
       <c r="J12" s="4">
-        <f>B12/($M$9-D12)*(C12-$N$9)</f>
+        <f t="shared" si="3"/>
         <v>18.18181818181818</v>
       </c>
       <c r="K12" s="4">
@@ -1992,12 +2063,12 @@
       <c r="N12" s="4">
         <v>385</v>
       </c>
-      <c r="O12" t="s" s="2">
+      <c r="O12" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" ht="16" customHeight="1">
-      <c r="A13" t="s" s="2">
+    <row r="13" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B13" s="4">
@@ -2022,11 +2093,11 @@
         <v>1</v>
       </c>
       <c r="I13" s="4">
-        <f>B13/($M$8-D13)*(C13-$N$8)</f>
-        <v>433.3333333333333</v>
+        <f t="shared" si="2"/>
+        <v>433.33333333333331</v>
       </c>
       <c r="J13" s="4">
-        <f>B13/($M$9-D13)*(C13-$N$9)</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K13" s="4">
@@ -2037,8 +2108,8 @@
       <c r="N13" s="3"/>
       <c r="O13" s="3"/>
     </row>
-    <row r="14" ht="16" customHeight="1">
-      <c r="A14" t="s" s="2">
+    <row r="14" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="4">
@@ -2063,12 +2134,12 @@
         <v>1</v>
       </c>
       <c r="I14" s="4">
-        <f>B14/($M$8-D14)*(C14-$N$8)</f>
-        <v>-39.3939393939394</v>
+        <f t="shared" si="2"/>
+        <v>-39.393939393939398</v>
       </c>
       <c r="J14" s="4">
-        <f>B14/($M$9-D14)*(C14-$N$9)</f>
-        <v>17.64705882352941</v>
+        <f t="shared" si="3"/>
+        <v>17.647058823529413</v>
       </c>
       <c r="K14" s="4">
         <v>2</v>
@@ -2078,8 +2149,8 @@
       <c r="N14" s="3"/>
       <c r="O14" s="3"/>
     </row>
-    <row r="15" ht="16" customHeight="1">
-      <c r="A15" t="s" s="2">
+    <row r="15" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="4">
@@ -2104,11 +2175,11 @@
         <v>1</v>
       </c>
       <c r="I15" s="4">
-        <f>B15/($M$8-D15)*(C15-$N$8)</f>
+        <f t="shared" si="2"/>
         <v>1360</v>
       </c>
       <c r="J15" s="4">
-        <f>B15/($M$9-D15)*(C15-$N$9)</f>
+        <f t="shared" si="3"/>
         <v>160</v>
       </c>
       <c r="K15" s="4">
@@ -2119,8 +2190,8 @@
       <c r="N15" s="3"/>
       <c r="O15" s="3"/>
     </row>
-    <row r="16" ht="16" customHeight="1">
-      <c r="A16" t="s" s="2">
+    <row r="16" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="4">
@@ -2132,10 +2203,10 @@
       <c r="D16" s="4">
         <v>66</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" s="2" t="s">
         <v>24</v>
       </c>
       <c r="G16" s="4">
@@ -2145,11 +2216,11 @@
         <v>1</v>
       </c>
       <c r="I16" s="4">
-        <f>B16/($M$8-D16)*(C16-$N$8)</f>
-        <v>-2348.903225806452</v>
+        <f t="shared" si="2"/>
+        <v>-2348.9032258064517</v>
       </c>
       <c r="J16" s="4">
-        <f>B16/($M$9-D16)*(C16-$N$9)</f>
+        <f t="shared" si="3"/>
         <v>2664</v>
       </c>
       <c r="K16" s="4">
@@ -2160,8 +2231,8 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
     </row>
-    <row r="17" ht="16" customHeight="1">
-      <c r="A17" t="s" s="2">
+    <row r="17" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="4">
@@ -2186,12 +2257,12 @@
         <v>1</v>
       </c>
       <c r="I17" s="4">
-        <f>B17/($M$9-D17)*(C17-$N$9)</f>
-        <v>172.3076923076923</v>
+        <f t="shared" ref="I17:I22" si="4">B17/($M$9-D17)*(C17-$N$9)</f>
+        <v>172.30769230769232</v>
       </c>
       <c r="J17" s="4">
-        <f>B17/($M$10-D17)*(C17-$N$10)</f>
-        <v>-91.42857142857142</v>
+        <f t="shared" ref="J17:J22" si="5">B17/($M$10-D17)*(C17-$N$10)</f>
+        <v>-91.428571428571416</v>
       </c>
       <c r="K17" s="4">
         <v>3</v>
@@ -2201,8 +2272,8 @@
       <c r="N17" s="3"/>
       <c r="O17" s="3"/>
     </row>
-    <row r="18" ht="16" customHeight="1">
-      <c r="A18" t="s" s="2">
+    <row r="18" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B18" s="4">
@@ -2227,12 +2298,12 @@
         <v>1</v>
       </c>
       <c r="I18" s="4">
-        <f>B18/($M$9-D18)*(C18-$N$9)</f>
-        <v>248.1818181818182</v>
+        <f t="shared" si="4"/>
+        <v>248.18181818181819</v>
       </c>
       <c r="J18" s="4">
-        <f>B18/($M$10-D18)*(C18-$N$10)</f>
-        <v>-16.15384615384615</v>
+        <f t="shared" si="5"/>
+        <v>-16.153846153846153</v>
       </c>
       <c r="K18" s="4">
         <v>3</v>
@@ -2242,8 +2313,8 @@
       <c r="N18" s="3"/>
       <c r="O18" s="3"/>
     </row>
-    <row r="19" ht="16" customHeight="1">
-      <c r="A19" t="s" s="2">
+    <row r="19" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B19" s="4">
@@ -2268,12 +2339,12 @@
         <v>1</v>
       </c>
       <c r="I19" s="4">
-        <f>B19/($M$9-D19)*(C19-$N$9)</f>
+        <f t="shared" si="4"/>
         <v>700</v>
       </c>
       <c r="J19" s="4">
-        <f>B19/($M$10-D19)*(C19-$N$10)</f>
-        <v>57.14285714285714</v>
+        <f t="shared" si="5"/>
+        <v>57.142857142857139</v>
       </c>
       <c r="K19" s="4">
         <v>3</v>
@@ -2283,8 +2354,8 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
     </row>
-    <row r="20" ht="16" customHeight="1">
-      <c r="A20" t="s" s="2">
+    <row r="20" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B20" s="4">
@@ -2309,11 +2380,11 @@
         <v>1</v>
       </c>
       <c r="I20" s="4">
-        <f>B20/($M$9-D20)*(C20-$N$9)</f>
+        <f t="shared" si="4"/>
         <v>-380</v>
       </c>
       <c r="J20" s="4">
-        <f>B20/($M$10-D20)*(C20-$N$10)</f>
+        <f t="shared" si="5"/>
         <v>40</v>
       </c>
       <c r="K20" s="4">
@@ -2324,8 +2395,8 @@
       <c r="N20" s="3"/>
       <c r="O20" s="3"/>
     </row>
-    <row r="21" ht="16" customHeight="1">
-      <c r="A21" t="s" s="2">
+    <row r="21" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B21" s="4">
@@ -2350,11 +2421,11 @@
         <v>1</v>
       </c>
       <c r="I21" s="4">
-        <f>B21/($M$9-D21)*(C21-$N$9)</f>
+        <f t="shared" si="4"/>
         <v>1530</v>
       </c>
       <c r="J21" s="4">
-        <f>B21/($M$10-D21)*(C21-$N$10)</f>
+        <f t="shared" si="5"/>
         <v>425.4545454545455</v>
       </c>
       <c r="K21" s="4">
@@ -2365,8 +2436,8 @@
       <c r="N21" s="3"/>
       <c r="O21" s="3"/>
     </row>
-    <row r="22" ht="16" customHeight="1">
-      <c r="A22" t="s" s="2">
+    <row r="22" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B22" s="4">
@@ -2391,11 +2462,11 @@
         <v>1</v>
       </c>
       <c r="I22" s="4">
-        <f>B22/($M$9-D22)*(C22-$N$9)</f>
+        <f t="shared" si="4"/>
         <v>-1500</v>
       </c>
       <c r="J22" s="4">
-        <f>B22/($M$10-D22)*(C22-$N$10)</f>
+        <f t="shared" si="5"/>
         <v>150</v>
       </c>
       <c r="K22" s="4">
@@ -2406,8 +2477,8 @@
       <c r="N22" s="3"/>
       <c r="O22" s="3"/>
     </row>
-    <row r="23" ht="16" customHeight="1">
-      <c r="A23" t="s" s="2">
+    <row r="23" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B23" s="4">
@@ -2432,11 +2503,11 @@
         <v>1</v>
       </c>
       <c r="I23" s="4">
-        <f>B23/($M$10-D23)*(C23-$N$10)</f>
-        <v>234.6666666666667</v>
+        <f t="shared" ref="I23:I29" si="6">B23/($M$10-D23)*(C23-$N$10)</f>
+        <v>234.66666666666666</v>
       </c>
       <c r="J23" s="4">
-        <f>B23/($M$11-D23)*(C23-$N$11)</f>
+        <f t="shared" ref="J23:J29" si="7">B23/($M$11-D23)*(C23-$N$11)</f>
         <v>12.8</v>
       </c>
       <c r="K23" s="4">
@@ -2447,8 +2518,8 @@
       <c r="N23" s="3"/>
       <c r="O23" s="3"/>
     </row>
-    <row r="24" ht="16" customHeight="1">
-      <c r="A24" t="s" s="2">
+    <row r="24" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="2" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="4">
@@ -2473,12 +2544,12 @@
         <v>1</v>
       </c>
       <c r="I24" s="4">
-        <f>B24/($M$10-D24)*(C24-$N$10)</f>
+        <f t="shared" si="6"/>
         <v>475</v>
       </c>
       <c r="J24" s="4">
-        <f>B24/($M$11-D24)*(C24-$N$11)</f>
-        <v>105.5555555555556</v>
+        <f t="shared" si="7"/>
+        <v>105.55555555555556</v>
       </c>
       <c r="K24" s="4">
         <v>4</v>
@@ -2488,8 +2559,8 @@
       <c r="N24" s="3"/>
       <c r="O24" s="3"/>
     </row>
-    <row r="25" ht="16" customHeight="1">
-      <c r="A25" t="s" s="2">
+    <row r="25" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="2" t="s">
         <v>41</v>
       </c>
       <c r="B25" s="4">
@@ -2514,11 +2585,11 @@
         <v>1</v>
       </c>
       <c r="I25" s="4">
-        <f>B25/($M$10-D25)*(C25-$N$10)</f>
+        <f t="shared" si="6"/>
         <v>665</v>
       </c>
       <c r="J25" s="4">
-        <f>B25/($M$11-D25)*(C25-$N$11)</f>
+        <f t="shared" si="7"/>
         <v>118.125</v>
       </c>
       <c r="K25" s="4">
@@ -2529,8 +2600,8 @@
       <c r="N25" s="3"/>
       <c r="O25" s="3"/>
     </row>
-    <row r="26" ht="16" customHeight="1">
-      <c r="A26" t="s" s="2">
+    <row r="26" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B26" s="4">
@@ -2555,12 +2626,12 @@
         <v>1</v>
       </c>
       <c r="I26" s="4">
-        <f>B26/($M$10-D26)*(C26-$N$10)</f>
+        <f t="shared" si="6"/>
         <v>997.5</v>
       </c>
       <c r="J26" s="4">
-        <f>B26/($M$11-D26)*(C26-$N$11)</f>
-        <v>149.2857142857143</v>
+        <f t="shared" si="7"/>
+        <v>149.28571428571431</v>
       </c>
       <c r="K26" s="4">
         <v>4</v>
@@ -2570,8 +2641,8 @@
       <c r="N26" s="3"/>
       <c r="O26" s="3"/>
     </row>
-    <row r="27" ht="16" customHeight="1">
-      <c r="A27" t="s" s="2">
+    <row r="27" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="2" t="s">
         <v>43</v>
       </c>
       <c r="B27" s="4">
@@ -2596,12 +2667,12 @@
         <v>1</v>
       </c>
       <c r="I27" s="4">
-        <f>B27/($M$10-D27)*(C27-$N$10)</f>
-        <v>757.6470588235295</v>
+        <f t="shared" si="6"/>
+        <v>757.64705882352951</v>
       </c>
       <c r="J27" s="4">
-        <f>B27/($M$11-D27)*(C27-$N$11)</f>
-        <v>223.7837837837838</v>
+        <f t="shared" si="7"/>
+        <v>223.78378378378378</v>
       </c>
       <c r="K27" s="4">
         <v>4</v>
@@ -2611,8 +2682,8 @@
       <c r="N27" s="3"/>
       <c r="O27" s="3"/>
     </row>
-    <row r="28" ht="16" customHeight="1">
-      <c r="A28" t="s" s="2">
+    <row r="28" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B28" s="4">
@@ -2637,12 +2708,12 @@
         <v>1</v>
       </c>
       <c r="I28" s="4">
-        <f>B28/($M$10-D28)*(C28-$N$10)</f>
+        <f t="shared" si="6"/>
         <v>-1500</v>
       </c>
       <c r="J28" s="4">
-        <f>B28/($M$11-D28)*(C28-$N$11)</f>
-        <v>385.7142857142857</v>
+        <f t="shared" si="7"/>
+        <v>385.71428571428572</v>
       </c>
       <c r="K28" s="4">
         <v>4</v>
@@ -2652,8 +2723,8 @@
       <c r="N28" s="3"/>
       <c r="O28" s="3"/>
     </row>
-    <row r="29" ht="16" customHeight="1">
-      <c r="A29" t="s" s="2">
+    <row r="29" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B29" s="4">
@@ -2678,11 +2749,11 @@
         <v>1</v>
       </c>
       <c r="I29" s="4">
-        <f>B29/($M$10-D29)*(C29-$N$10)</f>
-        <v>-502.8571428571428</v>
+        <f t="shared" si="6"/>
+        <v>-502.85714285714283</v>
       </c>
       <c r="J29" s="4">
-        <f>B29/($M$11-D29)*(C29-$N$11)</f>
+        <f t="shared" si="7"/>
         <v>640</v>
       </c>
       <c r="K29" s="4">
@@ -2693,8 +2764,8 @@
       <c r="N29" s="3"/>
       <c r="O29" s="3"/>
     </row>
-    <row r="30" ht="16" customHeight="1">
-      <c r="A30" t="s" s="2">
+    <row r="30" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B30" s="4">
@@ -2719,12 +2790,12 @@
         <v>1</v>
       </c>
       <c r="I30" s="4">
-        <f>B30/($M$11-D30)*(C30-$N$11)</f>
+        <f t="shared" ref="I30:I37" si="8">B30/($M$11-D30)*(C30-$N$11)</f>
         <v>171.875</v>
       </c>
       <c r="J30" s="4">
-        <f>B30/($M$12-D30)*(C30-$N$12)</f>
-        <v>-144.7368421052632</v>
+        <f t="shared" ref="J30:J37" si="9">B30/($M$12-D30)*(C30-$N$12)</f>
+        <v>-144.73684210526315</v>
       </c>
       <c r="K30" s="4">
         <v>5</v>
@@ -2734,8 +2805,8 @@
       <c r="N30" s="3"/>
       <c r="O30" s="3"/>
     </row>
-    <row r="31" ht="16" customHeight="1">
-      <c r="A31" t="s" s="2">
+    <row r="31" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="4">
@@ -2760,12 +2831,12 @@
         <v>1</v>
       </c>
       <c r="I31" s="4">
-        <f>B31/($M$11-D31)*(C31-$N$11)</f>
-        <v>416.6666666666667</v>
+        <f t="shared" si="8"/>
+        <v>416.66666666666669</v>
       </c>
       <c r="J31" s="4">
-        <f>B31/($M$12-D31)*(C31-$N$12)</f>
-        <v>-51.02040816326531</v>
+        <f t="shared" si="9"/>
+        <v>-51.020408163265309</v>
       </c>
       <c r="K31" s="4">
         <v>5</v>
@@ -2775,8 +2846,8 @@
       <c r="N31" s="3"/>
       <c r="O31" s="3"/>
     </row>
-    <row r="32" ht="16" customHeight="1">
-      <c r="A32" t="s" s="2">
+    <row r="32" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="2" t="s">
         <v>48</v>
       </c>
       <c r="B32" s="4">
@@ -2801,12 +2872,12 @@
         <v>1</v>
       </c>
       <c r="I32" s="4">
-        <f>B32/($M$11-D32)*(C32-$N$11)</f>
-        <v>666.6666666666667</v>
+        <f t="shared" si="8"/>
+        <v>666.66666666666674</v>
       </c>
       <c r="J32" s="4">
-        <f>B32/($M$12-D32)*(C32-$N$12)</f>
-        <v>47.2972972972973</v>
+        <f t="shared" si="9"/>
+        <v>47.297297297297298</v>
       </c>
       <c r="K32" s="4">
         <v>5</v>
@@ -2816,8 +2887,8 @@
       <c r="N32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" ht="16" customHeight="1">
-      <c r="A33" t="s" s="2">
+    <row r="33" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B33" s="4">
@@ -2842,12 +2913,12 @@
         <v>1</v>
       </c>
       <c r="I33" s="4">
-        <f>B33/($M$11-D33)*(C33-$N$11)</f>
+        <f t="shared" si="8"/>
         <v>1120</v>
       </c>
       <c r="J33" s="4">
-        <f>B33/($M$12-D33)*(C33-$N$12)</f>
-        <v>34.28571428571428</v>
+        <f t="shared" si="9"/>
+        <v>34.285714285714285</v>
       </c>
       <c r="K33" s="4">
         <v>5</v>
@@ -2857,8 +2928,8 @@
       <c r="N33" s="3"/>
       <c r="O33" s="3"/>
     </row>
-    <row r="34" ht="16" customHeight="1">
-      <c r="A34" t="s" s="2">
+    <row r="34" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="2" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="4">
@@ -2883,12 +2954,12 @@
         <v>1</v>
       </c>
       <c r="I34" s="4">
-        <f>B34/($M$11-D34)*(C34-$N$11)</f>
+        <f t="shared" si="8"/>
         <v>960</v>
       </c>
       <c r="J34" s="4">
-        <f>B34/($M$12-D34)*(C34-$N$12)</f>
-        <v>141.8181818181818</v>
+        <f t="shared" si="9"/>
+        <v>141.81818181818181</v>
       </c>
       <c r="K34" s="4">
         <v>5</v>
@@ -2898,8 +2969,8 @@
       <c r="N34" s="3"/>
       <c r="O34" s="3"/>
     </row>
-    <row r="35" ht="16" customHeight="1">
-      <c r="A35" t="s" s="2">
+    <row r="35" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="2" t="s">
         <v>51</v>
       </c>
       <c r="B35" s="4">
@@ -2924,12 +2995,12 @@
         <v>1</v>
       </c>
       <c r="I35" s="4">
-        <f>B35/($M$11-D35)*(C35-$N$11)</f>
-        <v>536.8421052631579</v>
+        <f t="shared" si="8"/>
+        <v>536.84210526315792</v>
       </c>
       <c r="J35" s="4">
-        <f>B35/($M$12-D35)*(C35-$N$12)</f>
-        <v>204.7619047619048</v>
+        <f t="shared" si="9"/>
+        <v>204.76190476190476</v>
       </c>
       <c r="K35" s="4">
         <v>5</v>
@@ -2939,8 +3010,8 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" ht="16" customHeight="1">
-      <c r="A36" t="s" s="2">
+    <row r="36" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="2" t="s">
         <v>52</v>
       </c>
       <c r="B36" s="4">
@@ -2965,12 +3036,12 @@
         <v>1</v>
       </c>
       <c r="I36" s="4">
-        <f>B36/($M$11-D36)*(C36-$N$11)</f>
+        <f t="shared" si="8"/>
         <v>1500</v>
       </c>
       <c r="J36" s="4">
-        <f>B36/($M$12-D36)*(C36-$N$12)</f>
-        <v>538.4615384615385</v>
+        <f t="shared" si="9"/>
+        <v>538.46153846153845</v>
       </c>
       <c r="K36" s="4">
         <v>5</v>
@@ -2980,8 +3051,8 @@
       <c r="N36" s="3"/>
       <c r="O36" s="3"/>
     </row>
-    <row r="37" ht="16" customHeight="1">
-      <c r="A37" t="s" s="2">
+    <row r="37" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="2" t="s">
         <v>53</v>
       </c>
       <c r="B37" s="4">
@@ -3006,12 +3077,12 @@
         <v>1</v>
       </c>
       <c r="I37" s="4">
-        <f>B37/($M$11-D37)*(C37-$N$11)</f>
-        <v>-266.6666666666667</v>
+        <f t="shared" si="8"/>
+        <v>-266.66666666666669</v>
       </c>
       <c r="J37" s="4">
-        <f>B37/($M$12-D37)*(C37-$N$12)</f>
-        <v>328.5714285714286</v>
+        <f t="shared" si="9"/>
+        <v>328.57142857142856</v>
       </c>
       <c r="K37" s="4">
         <v>5</v>
@@ -3021,8 +3092,8 @@
       <c r="N37" s="3"/>
       <c r="O37" s="3"/>
     </row>
-    <row r="38" ht="16" customHeight="1">
-      <c r="A38" t="s" s="2">
+    <row r="38" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="2" t="s">
         <v>54</v>
       </c>
       <c r="B38" s="4">
@@ -3048,8 +3119,8 @@
       <c r="N38" s="3"/>
       <c r="O38" s="3"/>
     </row>
-    <row r="39" ht="16" customHeight="1">
-      <c r="A39" t="s" s="2">
+    <row r="39" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="2" t="s">
         <v>55</v>
       </c>
       <c r="B39" s="4">
@@ -3075,8 +3146,8 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
     </row>
-    <row r="40" ht="16" customHeight="1">
-      <c r="A40" t="s" s="2">
+    <row r="40" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="2" t="s">
         <v>56</v>
       </c>
       <c r="B40" s="4">
@@ -3102,8 +3173,8 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
     </row>
-    <row r="41" ht="16" customHeight="1">
-      <c r="A41" t="s" s="2">
+    <row r="41" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B41" s="3"/>
@@ -3121,8 +3192,8 @@
       <c r="N41" s="3"/>
       <c r="O41" s="3"/>
     </row>
-    <row r="42" ht="16" customHeight="1">
-      <c r="A42" t="s" s="2">
+    <row r="42" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="3"/>
@@ -3140,8 +3211,8 @@
       <c r="N42" s="3"/>
       <c r="O42" s="3"/>
     </row>
-    <row r="43" ht="16" customHeight="1">
-      <c r="A43" t="s" s="2">
+    <row r="43" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B43" s="3"/>
@@ -3159,8 +3230,8 @@
       <c r="N43" s="3"/>
       <c r="O43" s="3"/>
     </row>
-    <row r="44" ht="16" customHeight="1">
-      <c r="A44" t="s" s="2">
+    <row r="44" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B44" s="3"/>
@@ -3178,8 +3249,8 @@
       <c r="N44" s="3"/>
       <c r="O44" s="3"/>
     </row>
-    <row r="45" ht="16" customHeight="1">
-      <c r="A45" t="s" s="2">
+    <row r="45" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B45" s="3"/>
@@ -3197,8 +3268,8 @@
       <c r="N45" s="3"/>
       <c r="O45" s="3"/>
     </row>
-    <row r="46" ht="16" customHeight="1">
-      <c r="A46" t="s" s="2">
+    <row r="46" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B46" s="3"/>
@@ -3216,8 +3287,8 @@
       <c r="N46" s="3"/>
       <c r="O46" s="3"/>
     </row>
-    <row r="47" ht="16" customHeight="1">
-      <c r="A47" t="s" s="2">
+    <row r="47" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B47" s="3"/>
@@ -3235,8 +3306,8 @@
       <c r="N47" s="3"/>
       <c r="O47" s="3"/>
     </row>
-    <row r="48" ht="16" customHeight="1">
-      <c r="A48" t="s" s="2">
+    <row r="48" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B48" s="3"/>
@@ -3254,8 +3325,8 @@
       <c r="N48" s="3"/>
       <c r="O48" s="3"/>
     </row>
-    <row r="49" ht="16" customHeight="1">
-      <c r="A49" t="s" s="2">
+    <row r="49" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B49" s="3"/>
@@ -3273,8 +3344,8 @@
       <c r="N49" s="3"/>
       <c r="O49" s="3"/>
     </row>
-    <row r="50" ht="16" customHeight="1">
-      <c r="A50" t="s" s="2">
+    <row r="50" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B50" s="3"/>
@@ -3292,8 +3363,8 @@
       <c r="N50" s="3"/>
       <c r="O50" s="3"/>
     </row>
-    <row r="51" ht="16" customHeight="1">
-      <c r="A51" t="s" s="2">
+    <row r="51" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B51" s="3"/>
@@ -3311,8 +3382,8 @@
       <c r="N51" s="3"/>
       <c r="O51" s="3"/>
     </row>
-    <row r="52" ht="16" customHeight="1">
-      <c r="A52" t="s" s="2">
+    <row r="52" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B52" s="3"/>
@@ -3330,8 +3401,8 @@
       <c r="N52" s="3"/>
       <c r="O52" s="3"/>
     </row>
-    <row r="53" ht="16" customHeight="1">
-      <c r="A53" t="s" s="2">
+    <row r="53" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B53" s="3"/>
@@ -3349,8 +3420,8 @@
       <c r="N53" s="3"/>
       <c r="O53" s="3"/>
     </row>
-    <row r="54" ht="16" customHeight="1">
-      <c r="A54" t="s" s="2">
+    <row r="54" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B54" s="3"/>
@@ -3368,8 +3439,8 @@
       <c r="N54" s="3"/>
       <c r="O54" s="3"/>
     </row>
-    <row r="55" ht="16" customHeight="1">
-      <c r="A55" t="s" s="2">
+    <row r="55" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B55" s="3"/>
@@ -3388,8 +3459,9 @@
       <c r="O55" s="3"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/__data__/monster_data_analysis.xlsx
+++ b/__data__/monster_data_analysis.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
   <si>
     <t>Monster</t>
   </si>
@@ -132,116 +132,235 @@
     <t>Gate-Keeper B</t>
   </si>
   <si>
+    <t>Knight B</t>
+  </si>
+  <si>
+    <t>Green Slime A</t>
+  </si>
+  <si>
+    <t>Vampire Bat B</t>
+  </si>
+  <si>
+    <t>Magician B</t>
+  </si>
+  <si>
+    <t>Magician A</t>
+  </si>
+  <si>
+    <t>Magic Sergeant B</t>
+  </si>
+  <si>
+    <t>Dark Knight B</t>
+  </si>
+  <si>
+    <t>Gate-Keeper A</t>
+  </si>
+  <si>
+    <t>Red Slime A</t>
+  </si>
+  <si>
+    <t>Slimelord</t>
+  </si>
+  <si>
+    <t>Dark Priest</t>
+  </si>
+  <si>
+    <t>Knight A</t>
+  </si>
+  <si>
+    <t>Smoke Man</t>
+  </si>
+  <si>
+    <t>Fire Bat</t>
+  </si>
+  <si>
+    <t>Ice Zombie</t>
+  </si>
+  <si>
+    <t>Iron-Head</t>
+  </si>
+  <si>
+    <t>Knight C</t>
+  </si>
+  <si>
+    <t>Devil</t>
+  </si>
+  <si>
+    <t>Magic Master</t>
+  </si>
+  <si>
+    <t>Blast Slime</t>
+  </si>
+  <si>
+    <t>Bomb Slime</t>
+  </si>
+  <si>
+    <t>Sword Soldier</t>
+  </si>
+  <si>
+    <t>Dark Soldier</t>
+  </si>
+  <si>
+    <t>Dark Bat</t>
+  </si>
+  <si>
+    <t>Vampire Bat A</t>
+  </si>
+  <si>
+    <t>Swordsman A</t>
+  </si>
+  <si>
+    <t>Dark Swordsman</t>
+  </si>
+  <si>
+    <t>Diamond-Head</t>
+  </si>
+  <si>
+    <t>Dark Knight A</t>
+  </si>
+  <si>
+    <t>Sand Man</t>
+  </si>
+  <si>
+    <t>Snowman A</t>
+  </si>
+  <si>
+    <t>Magic Sergeant A</t>
+  </si>
+  <si>
     <t>Swordsman B</t>
-  </si>
-  <si>
-    <t>Knight B</t>
-  </si>
-  <si>
-    <t>Green Slime A</t>
-  </si>
-  <si>
-    <t>Vampire Bat B</t>
-  </si>
-  <si>
-    <t>Magician B</t>
-  </si>
-  <si>
-    <t>Magician A</t>
-  </si>
-  <si>
-    <t>Magic Sergeant B</t>
-  </si>
-  <si>
-    <t>Dark Knight B</t>
-  </si>
-  <si>
-    <t>Gate-Keeper A</t>
-  </si>
-  <si>
-    <t>Red Slime A</t>
-  </si>
-  <si>
-    <t>Slimelord</t>
-  </si>
-  <si>
-    <t>Dark Priest</t>
-  </si>
-  <si>
-    <t>Knight A</t>
-  </si>
-  <si>
-    <t>Smoke Man</t>
-  </si>
-  <si>
-    <t>Fire Bat</t>
-  </si>
-  <si>
-    <t>Ice Zombie</t>
-  </si>
-  <si>
-    <t>Iron-Head</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snowman B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>nowman C</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sand Man</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Knight C</t>
-  </si>
-  <si>
-    <t>Devil</t>
-  </si>
-  <si>
-    <t>Magic Master</t>
-  </si>
-  <si>
-    <t>Blast Slime</t>
-  </si>
-  <si>
-    <t>Bomb Slime</t>
-  </si>
-  <si>
-    <t>Sword Soldier</t>
-  </si>
-  <si>
-    <t>Dark Soldier</t>
-  </si>
-  <si>
-    <t>Dark Bat</t>
-  </si>
-  <si>
-    <t>Vampire Bat A</t>
-  </si>
-  <si>
-    <t>Swordsman A</t>
-  </si>
-  <si>
-    <t>Dark Swordsman</t>
-  </si>
-  <si>
-    <t>Diamond-Head</t>
-  </si>
-  <si>
-    <t>Dark Knight A</t>
-  </si>
-  <si>
-    <t>Sand Man</t>
-  </si>
-  <si>
-    <t>Snowman C</t>
-  </si>
-  <si>
-    <t>Snowman B</t>
-  </si>
-  <si>
-    <t>Snowman A</t>
-  </si>
-  <si>
-    <t>Magic Sergeant A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>?</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>?</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -249,6 +368,13 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -297,7 +423,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -311,6 +437,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1473,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IV55"/>
+  <dimension ref="A1:IV59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="G43" sqref="G43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1549,7 +1684,7 @@
         <v>1</v>
       </c>
       <c r="F2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="4">
         <v>8</v>
@@ -1558,27 +1693,27 @@
         <v>1</v>
       </c>
       <c r="I2" s="4">
-        <f t="shared" ref="I2:I9" si="0">B2/($M$7-D2)*(C2-$N$7)</f>
+        <f t="shared" ref="I2:I10" si="0">B2/($M$8-D2)*(C2-$N$8)</f>
         <v>31.111111111111111</v>
       </c>
       <c r="J2" s="4">
-        <f t="shared" ref="J2:J9" si="1">B2/($M$8-D2)*(C2-$N$8)</f>
+        <f t="shared" ref="J2:J10" si="1">B2/($M$9-D2)*(C2-$N$9)</f>
         <v>-17.5</v>
       </c>
       <c r="K2" s="4">
         <v>1</v>
       </c>
       <c r="L2" s="4">
-        <f>AVERAGE(B2:B8)</f>
-        <v>47.142857142857146</v>
+        <f>AVERAGE(B2:B9)</f>
+        <v>48.75</v>
       </c>
       <c r="M2" s="4">
-        <f>AVERAGE(C2:C8)</f>
-        <v>35.714285714285715</v>
+        <f>AVERAGE(C2:C9)</f>
+        <v>35.625</v>
       </c>
       <c r="N2" s="4">
-        <f>AVERAGE(D2:D8)</f>
-        <v>7.7142857142857144</v>
+        <f>AVERAGE(D2:D9)</f>
+        <v>8.625</v>
       </c>
       <c r="O2" s="4">
         <v>1</v>
@@ -1621,16 +1756,16 @@
         <v>1</v>
       </c>
       <c r="L3" s="4">
-        <f>AVERAGE(B10:B15)</f>
-        <v>148.33333333333334</v>
+        <f>AVERAGE(B11:B17)</f>
+        <v>151.42857142857142</v>
       </c>
       <c r="M3" s="4">
-        <f>AVERAGE(C10:C15)</f>
-        <v>93.333333333333329</v>
+        <f>AVERAGE(C11:C17)</f>
+        <v>94.142857142857139</v>
       </c>
       <c r="N3" s="4">
-        <f>AVERAGE(D10:D15)</f>
-        <v>21.5</v>
+        <f>AVERAGE(D11:D17)</f>
+        <v>24.142857142857142</v>
       </c>
       <c r="O3" s="4">
         <v>2</v>
@@ -1673,16 +1808,16 @@
         <v>1</v>
       </c>
       <c r="L4" s="4">
-        <f>AVERAGE(B17:B22)</f>
-        <v>183.33333333333334</v>
+        <f>AVERAGE(B19:B25)</f>
+        <v>200</v>
       </c>
       <c r="M4" s="4">
-        <f>AVERAGE(C17:C20,C22)</f>
-        <v>170</v>
+        <f>AVERAGE(C19:C23,C25)</f>
+        <v>175</v>
       </c>
       <c r="N4" s="4">
-        <f>AVERAGE(D17:D22)</f>
-        <v>60.833333333333336</v>
+        <f>AVERAGE(D19:D25)</f>
+        <v>53.571428571428569</v>
       </c>
       <c r="O4" s="4">
         <v>3</v>
@@ -1725,15 +1860,15 @@
         <v>1</v>
       </c>
       <c r="L5" s="4">
-        <f>AVERAGE(B23:B28)</f>
+        <f>AVERAGE(B27:B32)</f>
         <v>220</v>
       </c>
       <c r="M5" s="4">
-        <f>AVERAGE(C23:C28)</f>
+        <f>AVERAGE(C27:C32)</f>
         <v>366.66666666666669</v>
       </c>
       <c r="N5" s="4">
-        <f>AVERAGE(D23:D28)</f>
+        <f>AVERAGE(D27:D32)</f>
         <v>95.833333333333329</v>
       </c>
       <c r="O5" s="4">
@@ -1741,446 +1876,446 @@
       </c>
     </row>
     <row r="6" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>18</v>
+      <c r="A6" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="B6" s="4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="C6" s="4">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D6" s="4">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4">
         <v>6</v>
       </c>
-      <c r="E6" s="4">
-        <v>4</v>
-      </c>
       <c r="F6" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G6" s="4">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="H6" s="4">
         <v>1</v>
       </c>
       <c r="I6" s="4">
         <f t="shared" si="0"/>
-        <v>400</v>
+        <v>-300</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="1"/>
-        <v>12.068965517241379</v>
+        <v>0</v>
       </c>
       <c r="K6" s="4">
         <v>1</v>
       </c>
-      <c r="L6" s="3"/>
-      <c r="M6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="N6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="O6" s="3"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+      <c r="O6" s="4"/>
     </row>
     <row r="7" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B7" s="4">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="D7" s="4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E7" s="4">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F7" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="G7" s="4">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="H7" s="4">
         <v>1</v>
       </c>
       <c r="I7" s="4">
         <f t="shared" si="0"/>
-        <v>-1155</v>
+        <v>400</v>
       </c>
       <c r="J7" s="4">
         <f t="shared" si="1"/>
-        <v>40.652173913043477</v>
+        <v>12.068965517241379</v>
       </c>
       <c r="K7" s="4">
         <v>1</v>
       </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="4">
-        <v>10</v>
-      </c>
-      <c r="N7" s="4">
-        <v>10</v>
-      </c>
-      <c r="O7" s="4">
-        <v>1</v>
-      </c>
+      <c r="M7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="O7" s="3"/>
     </row>
     <row r="8" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="C8" s="4">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D8" s="4">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="E8" s="4">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="F8" s="4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" s="4">
-        <v>42</v>
+        <v>32</v>
       </c>
       <c r="H8" s="4">
         <v>1</v>
       </c>
       <c r="I8" s="4">
         <f t="shared" si="0"/>
-        <v>-158.33333333333334</v>
+        <v>-1155</v>
       </c>
       <c r="J8" s="4">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>40.652173913043477</v>
       </c>
       <c r="K8" s="4">
         <v>1</v>
       </c>
       <c r="L8" s="3"/>
       <c r="M8" s="4">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="N8" s="4">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="O8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C9" s="4">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="D9" s="4">
-        <v>15</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F9" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
+      </c>
+      <c r="E9" s="4">
+        <v>10</v>
+      </c>
+      <c r="F9" s="4">
+        <v>8</v>
       </c>
       <c r="G9" s="4">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>
       </c>
       <c r="I9" s="4">
         <f t="shared" si="0"/>
-        <v>-1100</v>
+        <v>-158.33333333333334</v>
       </c>
       <c r="J9" s="4">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="K9" s="4">
         <v>1</v>
       </c>
       <c r="L9" s="3"/>
       <c r="M9" s="4">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="N9" s="4">
-        <v>85</v>
+        <v>35</v>
       </c>
       <c r="O9" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B10" s="4">
-        <v>130</v>
+        <v>100</v>
       </c>
       <c r="C10" s="4">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D10" s="4">
-        <v>3</v>
-      </c>
-      <c r="E10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4">
-        <v>1</v>
+        <v>15</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G10" s="4">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="H10" s="4">
         <v>1</v>
       </c>
       <c r="I10" s="4">
-        <f t="shared" ref="I10:I16" si="2">B10/($M$8-D10)*(C10-$N$8)</f>
-        <v>101.5625</v>
+        <f t="shared" si="0"/>
+        <v>-1100</v>
       </c>
       <c r="J10" s="4">
-        <f t="shared" ref="J10:J16" si="3">B10/($M$9-D10)*(C10-$N$9)</f>
-        <v>-39.634146341463413</v>
+        <f t="shared" si="1"/>
+        <v>150</v>
       </c>
       <c r="K10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10" s="3"/>
       <c r="M10" s="4">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="N10" s="4">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="O10" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="4">
+        <v>130</v>
+      </c>
+      <c r="C11" s="4">
+        <v>60</v>
+      </c>
+      <c r="D11" s="4">
+        <v>3</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4">
+        <v>1</v>
+      </c>
+      <c r="G11" s="4">
+        <v>20</v>
+      </c>
+      <c r="H11" s="4">
+        <v>1</v>
+      </c>
+      <c r="I11" s="4">
+        <f t="shared" ref="I11:I18" si="2">B11/($M$9-D11)*(C11-$N$9)</f>
+        <v>101.5625</v>
+      </c>
+      <c r="J11" s="4">
+        <f t="shared" ref="J11:J18" si="3">B11/($M$10-D11)*(C11-$N$10)</f>
+        <v>-39.634146341463413</v>
+      </c>
+      <c r="K11" s="4">
+        <v>2</v>
+      </c>
+      <c r="L11" s="3"/>
+      <c r="M11" s="4">
+        <v>160</v>
+      </c>
+      <c r="N11" s="4">
+        <v>160</v>
+      </c>
+      <c r="O11" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B12" s="4">
+        <v>170</v>
+      </c>
+      <c r="C12" s="4">
+        <v>94</v>
+      </c>
+      <c r="D12" s="4">
+        <v>40</v>
+      </c>
+      <c r="E12" s="4">
+        <v>9</v>
+      </c>
+      <c r="F12" s="4">
+        <v>7</v>
+      </c>
+      <c r="G12" s="4">
+        <v>48</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <f t="shared" ref="I12" si="4">B12/($M$9-D12)*(C12-$N$9)</f>
+        <v>-2006</v>
+      </c>
+      <c r="J12" s="4">
+        <f t="shared" ref="J12" si="5">B12/($M$10-D12)*(C12-$N$10)</f>
+        <v>34</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2</v>
+      </c>
+      <c r="L12" s="3"/>
+      <c r="M12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="O12" s="4"/>
+    </row>
+    <row r="13" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="4">
+      <c r="B13" s="4">
         <v>60</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C13" s="4">
         <v>100</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D13" s="4">
         <v>8</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E13" s="4">
         <v>2</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F13" s="4">
         <v>2</v>
       </c>
-      <c r="G11" s="4">
+      <c r="G13" s="4">
         <v>24</v>
       </c>
-      <c r="H11" s="4">
-        <v>1</v>
-      </c>
-      <c r="I11" s="4">
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
         <f t="shared" si="2"/>
         <v>144.44444444444446</v>
       </c>
-      <c r="J11" s="4">
+      <c r="J13" s="4">
         <f t="shared" si="3"/>
         <v>11.688311688311689</v>
       </c>
-      <c r="K11" s="4">
+      <c r="K13" s="4">
         <v>2</v>
       </c>
-      <c r="L11" s="3"/>
-      <c r="M11" s="4">
+      <c r="L13" s="3"/>
+      <c r="M13" s="4">
         <v>260</v>
       </c>
-      <c r="N11" s="4">
+      <c r="N13" s="4">
         <v>260</v>
       </c>
-      <c r="O11" s="4">
+      <c r="O13" s="4">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="2" t="s">
+    <row r="14" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="4">
+      <c r="B14" s="4">
         <v>100</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C14" s="4">
         <v>95</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D14" s="4">
         <v>30</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E14" s="4">
         <v>5</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F14" s="4">
         <v>4</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G14" s="4">
         <v>33</v>
       </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
         <f t="shared" si="2"/>
         <v>1200</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J14" s="4">
         <f t="shared" si="3"/>
         <v>18.18181818181818</v>
       </c>
-      <c r="K12" s="4">
-        <v>2</v>
-      </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="4">
-        <v>385</v>
-      </c>
-      <c r="N12" s="4">
-        <v>385</v>
-      </c>
-      <c r="O12" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" s="4">
-        <v>260</v>
-      </c>
-      <c r="C13" s="4">
-        <v>85</v>
-      </c>
-      <c r="D13" s="4">
-        <v>5</v>
-      </c>
-      <c r="E13" s="4">
-        <v>4</v>
-      </c>
-      <c r="F13" s="4">
-        <v>6</v>
-      </c>
-      <c r="G13" s="4">
-        <v>38</v>
-      </c>
-      <c r="H13" s="4">
-        <v>1</v>
-      </c>
-      <c r="I13" s="4">
-        <f t="shared" si="2"/>
-        <v>433.33333333333331</v>
-      </c>
-      <c r="J13" s="4">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="4">
-        <v>2</v>
-      </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-    </row>
-    <row r="14" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="4">
-        <v>20</v>
-      </c>
-      <c r="C14" s="4">
-        <v>100</v>
-      </c>
-      <c r="D14" s="4">
-        <v>68</v>
-      </c>
-      <c r="E14" s="4">
-        <v>10</v>
-      </c>
-      <c r="F14" s="4">
-        <v>3</v>
-      </c>
-      <c r="G14" s="4">
-        <v>40</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1</v>
-      </c>
-      <c r="I14" s="4">
-        <f t="shared" si="2"/>
-        <v>-39.393939393939398</v>
-      </c>
-      <c r="J14" s="4">
-        <f t="shared" si="3"/>
-        <v>17.647058823529413</v>
-      </c>
       <c r="K14" s="4">
         <v>2</v>
       </c>
       <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
+      <c r="M14" s="4">
+        <v>385</v>
+      </c>
+      <c r="N14" s="4">
+        <v>385</v>
+      </c>
+      <c r="O14" s="2" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="15" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B15" s="4">
-        <v>320</v>
+        <v>260</v>
       </c>
       <c r="C15" s="4">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="D15" s="4">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E15" s="4">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F15" s="4">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G15" s="4">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="H15" s="4">
         <v>1</v>
       </c>
       <c r="I15" s="4">
         <f t="shared" si="2"/>
-        <v>1360</v>
+        <v>476.66666666666663</v>
       </c>
       <c r="J15" s="4">
         <f t="shared" si="3"/>
-        <v>160</v>
+        <v>16.25</v>
       </c>
       <c r="K15" s="4">
         <v>2</v>
@@ -2192,36 +2327,36 @@
     </row>
     <row r="16" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B16" s="4">
-        <v>444</v>
+        <v>20</v>
       </c>
       <c r="C16" s="4">
-        <v>199</v>
+        <v>100</v>
       </c>
       <c r="D16" s="4">
-        <v>66</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>24</v>
+        <v>68</v>
+      </c>
+      <c r="E16" s="4">
+        <v>10</v>
+      </c>
+      <c r="F16" s="4">
+        <v>3</v>
       </c>
       <c r="G16" s="4">
-        <v>216</v>
+        <v>40</v>
       </c>
       <c r="H16" s="4">
         <v>1</v>
       </c>
       <c r="I16" s="4">
         <f t="shared" si="2"/>
-        <v>-2348.9032258064517</v>
+        <v>-39.393939393939398</v>
       </c>
       <c r="J16" s="4">
         <f t="shared" si="3"/>
-        <v>2664</v>
+        <v>17.647058823529413</v>
       </c>
       <c r="K16" s="4">
         <v>2</v>
@@ -2233,7 +2368,7 @@
     </row>
     <row r="17" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B17" s="4">
         <v>320</v>
@@ -2242,30 +2377,30 @@
         <v>120</v>
       </c>
       <c r="D17" s="4">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E17" s="4">
+        <v>7</v>
+      </c>
+      <c r="F17" s="4">
+        <v>8</v>
+      </c>
+      <c r="G17" s="4">
+        <v>50</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <f t="shared" si="2"/>
+        <v>1360</v>
+      </c>
+      <c r="J17" s="4">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+      <c r="K17" s="4">
         <v>2</v>
-      </c>
-      <c r="F17" s="4">
-        <v>2</v>
-      </c>
-      <c r="G17" s="4">
-        <v>35</v>
-      </c>
-      <c r="H17" s="4">
-        <v>1</v>
-      </c>
-      <c r="I17" s="4">
-        <f t="shared" ref="I17:I22" si="4">B17/($M$9-D17)*(C17-$N$9)</f>
-        <v>172.30769230769232</v>
-      </c>
-      <c r="J17" s="4">
-        <f t="shared" ref="J17:J22" si="5">B17/($M$10-D17)*(C17-$N$10)</f>
-        <v>-91.428571428571416</v>
-      </c>
-      <c r="K17" s="4">
-        <v>3</v>
       </c>
       <c r="L17" s="3"/>
       <c r="M17" s="3"/>
@@ -2274,39 +2409,39 @@
     </row>
     <row r="18" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="4">
-        <v>210</v>
+        <v>444</v>
       </c>
       <c r="C18" s="4">
-        <v>150</v>
+        <v>199</v>
       </c>
       <c r="D18" s="4">
-        <v>30</v>
-      </c>
-      <c r="E18" s="4">
-        <v>3</v>
-      </c>
-      <c r="F18" s="4">
-        <v>3</v>
+        <v>66</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F18" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="G18" s="4">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="H18" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I18" s="4">
-        <f t="shared" si="4"/>
-        <v>248.18181818181819</v>
+        <f t="shared" si="2"/>
+        <v>-2348.9032258064517</v>
       </c>
       <c r="J18" s="4">
-        <f t="shared" si="5"/>
-        <v>-16.153846153846153</v>
+        <f t="shared" si="3"/>
+        <v>2664</v>
       </c>
       <c r="K18" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L18" s="3"/>
       <c r="M18" s="3"/>
@@ -2315,36 +2450,36 @@
     </row>
     <row r="19" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="4">
+        <v>320</v>
+      </c>
+      <c r="C19" s="4">
+        <v>120</v>
+      </c>
+      <c r="D19" s="4">
+        <v>20</v>
+      </c>
+      <c r="E19" s="4">
+        <v>2</v>
+      </c>
+      <c r="F19" s="4">
+        <v>1</v>
+      </c>
+      <c r="G19" s="4">
         <v>35</v>
       </c>
-      <c r="B19" s="4">
-        <v>200</v>
-      </c>
-      <c r="C19" s="4">
-        <v>190</v>
-      </c>
-      <c r="D19" s="4">
-        <v>55</v>
-      </c>
-      <c r="E19" s="4">
-        <v>5</v>
-      </c>
-      <c r="F19" s="4">
-        <v>5</v>
-      </c>
-      <c r="G19" s="4">
-        <v>49</v>
-      </c>
       <c r="H19" s="4">
         <v>1</v>
       </c>
       <c r="I19" s="4">
-        <f t="shared" si="4"/>
-        <v>700</v>
+        <f t="shared" ref="I19:I26" si="6">B19/($M$10-D19)*(C19-$N$10)</f>
+        <v>172.30769230769232</v>
       </c>
       <c r="J19" s="4">
-        <f t="shared" si="5"/>
-        <v>57.142857142857139</v>
+        <f t="shared" ref="J19:J26" si="7">B19/($M$11-D19)*(C19-$N$11)</f>
+        <v>-91.428571428571416</v>
       </c>
       <c r="K19" s="4">
         <v>3</v>
@@ -2356,36 +2491,36 @@
     </row>
     <row r="20" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B20" s="4">
-        <v>100</v>
+        <v>210</v>
       </c>
       <c r="C20" s="4">
-        <v>180</v>
+        <v>150</v>
       </c>
       <c r="D20" s="4">
-        <v>110</v>
+        <v>30</v>
       </c>
       <c r="E20" s="4">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F20" s="4">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G20" s="4">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="H20" s="4">
         <v>1</v>
       </c>
       <c r="I20" s="4">
-        <f t="shared" si="4"/>
-        <v>-380</v>
+        <f t="shared" si="6"/>
+        <v>248.18181818181819</v>
       </c>
       <c r="J20" s="4">
-        <f t="shared" si="5"/>
-        <v>40</v>
+        <f t="shared" si="7"/>
+        <v>-16.153846153846153</v>
       </c>
       <c r="K20" s="4">
         <v>3</v>
@@ -2396,37 +2531,37 @@
       <c r="O20" s="3"/>
     </row>
     <row r="21" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
-        <v>37</v>
+      <c r="A21" s="5" t="s">
+        <v>72</v>
       </c>
       <c r="B21" s="4">
-        <v>90</v>
+        <v>300</v>
       </c>
       <c r="C21" s="4">
-        <v>680</v>
+        <v>200</v>
       </c>
       <c r="D21" s="4">
+        <v>10</v>
+      </c>
+      <c r="E21" s="4">
+        <v>4</v>
+      </c>
+      <c r="F21" s="4">
+        <v>6</v>
+      </c>
+      <c r="G21" s="4">
         <v>50</v>
       </c>
-      <c r="E21" s="4">
-        <v>7</v>
-      </c>
-      <c r="F21" s="4">
-        <v>4</v>
-      </c>
-      <c r="G21" s="4">
-        <v>60</v>
-      </c>
       <c r="H21" s="4">
         <v>1</v>
       </c>
       <c r="I21" s="4">
-        <f t="shared" si="4"/>
-        <v>1530</v>
+        <f t="shared" ref="I21" si="8">B21/($M$10-D21)*(C21-$N$10)</f>
+        <v>460</v>
       </c>
       <c r="J21" s="4">
-        <f t="shared" si="5"/>
-        <v>425.4545454545455</v>
+        <f t="shared" ref="J21" si="9">B21/($M$11-D21)*(C21-$N$11)</f>
+        <v>80</v>
       </c>
       <c r="K21" s="4">
         <v>3</v>
@@ -2438,36 +2573,36 @@
     </row>
     <row r="22" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B22" s="4">
-        <v>180</v>
+        <v>200</v>
       </c>
       <c r="C22" s="4">
-        <v>210</v>
+        <v>190</v>
       </c>
       <c r="D22" s="4">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="E22" s="4">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F22" s="4">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="G22" s="4">
-        <v>75</v>
+        <v>49</v>
       </c>
       <c r="H22" s="4">
         <v>1</v>
       </c>
       <c r="I22" s="4">
-        <f t="shared" si="4"/>
-        <v>-1500</v>
+        <f t="shared" si="6"/>
+        <v>700</v>
       </c>
       <c r="J22" s="4">
-        <f t="shared" si="5"/>
-        <v>150</v>
+        <f t="shared" si="7"/>
+        <v>57.142857142857139</v>
       </c>
       <c r="K22" s="4">
         <v>3</v>
@@ -2479,39 +2614,39 @@
     </row>
     <row r="23" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="B23" s="4">
-        <v>320</v>
+        <v>100</v>
       </c>
       <c r="C23" s="4">
-        <v>270</v>
+        <v>180</v>
       </c>
       <c r="D23" s="4">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E23" s="4">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F23" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G23" s="4">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="H23" s="4">
         <v>1</v>
       </c>
       <c r="I23" s="4">
-        <f t="shared" ref="I23:I29" si="6">B23/($M$10-D23)*(C23-$N$10)</f>
-        <v>234.66666666666666</v>
+        <f t="shared" si="6"/>
+        <v>-380</v>
       </c>
       <c r="J23" s="4">
-        <f t="shared" ref="J23:J29" si="7">B23/($M$11-D23)*(C23-$N$11)</f>
-        <v>12.8</v>
+        <f t="shared" si="7"/>
+        <v>40</v>
       </c>
       <c r="K23" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L23" s="3"/>
       <c r="M23" s="3"/>
@@ -2519,40 +2654,40 @@
       <c r="O23" s="3"/>
     </row>
     <row r="24" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
-        <v>40</v>
+      <c r="A24" s="5" t="s">
+        <v>69</v>
       </c>
       <c r="B24" s="4">
-        <v>190</v>
+        <v>90</v>
       </c>
       <c r="C24" s="4">
-        <v>360</v>
+        <v>680</v>
       </c>
       <c r="D24" s="4">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="E24" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F24" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G24" s="4">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="H24" s="4">
         <v>1</v>
       </c>
       <c r="I24" s="4">
         <f t="shared" si="6"/>
-        <v>475</v>
+        <v>1530</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="7"/>
-        <v>105.55555555555556</v>
+        <v>425.4545454545455</v>
       </c>
       <c r="K24" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L24" s="3"/>
       <c r="M24" s="3"/>
@@ -2561,39 +2696,39 @@
     </row>
     <row r="25" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B25" s="4">
+        <v>180</v>
+      </c>
+      <c r="C25" s="4">
         <v>210</v>
-      </c>
-      <c r="C25" s="4">
-        <v>350</v>
       </c>
       <c r="D25" s="4">
         <v>100</v>
       </c>
       <c r="E25" s="4">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="F25" s="4">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="G25" s="4">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H25" s="4">
         <v>1</v>
       </c>
       <c r="I25" s="4">
         <f t="shared" si="6"/>
-        <v>665</v>
+        <v>-1500</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="7"/>
-        <v>118.125</v>
+        <v>150</v>
       </c>
       <c r="K25" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L25" s="3"/>
       <c r="M25" s="3"/>
@@ -2601,40 +2736,40 @@
       <c r="O25" s="3"/>
     </row>
     <row r="26" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
-        <v>42</v>
+      <c r="A26" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="B26" s="4">
-        <v>190</v>
+        <v>165</v>
       </c>
       <c r="C26" s="4">
-        <v>370</v>
+        <v>300</v>
       </c>
       <c r="D26" s="4">
-        <v>120</v>
-      </c>
-      <c r="E26" s="4">
-        <v>6</v>
-      </c>
-      <c r="F26" s="4">
-        <v>5</v>
+        <v>10</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="G26" s="4">
-        <v>92</v>
+        <v>500</v>
       </c>
       <c r="H26" s="4">
         <v>1</v>
       </c>
       <c r="I26" s="4">
         <f t="shared" si="6"/>
-        <v>997.5</v>
+        <v>473.00000000000006</v>
       </c>
       <c r="J26" s="4">
         <f t="shared" si="7"/>
-        <v>149.28571428571431</v>
+        <v>154</v>
       </c>
       <c r="K26" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="L26" s="3"/>
       <c r="M26" s="3"/>
@@ -2643,36 +2778,36 @@
     </row>
     <row r="27" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B27" s="4">
-        <v>230</v>
+        <v>320</v>
       </c>
       <c r="C27" s="4">
-        <v>440</v>
+        <v>270</v>
       </c>
       <c r="D27" s="4">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="E27" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F27" s="4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G27" s="4">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="H27" s="4">
         <v>1</v>
       </c>
       <c r="I27" s="4">
-        <f t="shared" si="6"/>
-        <v>757.64705882352951</v>
+        <f t="shared" ref="I27:I33" si="10">B27/($M$11-D27)*(C27-$N$11)</f>
+        <v>234.66666666666666</v>
       </c>
       <c r="J27" s="4">
-        <f t="shared" si="7"/>
-        <v>223.78378378378378</v>
+        <f t="shared" ref="J27:J33" si="11">B27/($M$13-D27)*(C27-$N$13)</f>
+        <v>12.8</v>
       </c>
       <c r="K27" s="4">
         <v>4</v>
@@ -2684,36 +2819,36 @@
     </row>
     <row r="28" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B28" s="4">
-        <v>180</v>
+        <v>190</v>
       </c>
       <c r="C28" s="4">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="D28" s="4">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="E28" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="F28" s="4">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="G28" s="4">
-        <v>110</v>
+        <v>58</v>
       </c>
       <c r="H28" s="4">
         <v>1</v>
       </c>
       <c r="I28" s="4">
-        <f t="shared" si="6"/>
-        <v>-1500</v>
+        <f t="shared" si="10"/>
+        <v>475</v>
       </c>
       <c r="J28" s="4">
-        <f t="shared" si="7"/>
-        <v>385.71428571428572</v>
+        <f t="shared" si="11"/>
+        <v>105.55555555555556</v>
       </c>
       <c r="K28" s="4">
         <v>4</v>
@@ -2725,36 +2860,36 @@
     </row>
     <row r="29" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B29" s="4">
-        <v>160</v>
+        <v>210</v>
       </c>
       <c r="C29" s="4">
-        <v>380</v>
+        <v>350</v>
       </c>
       <c r="D29" s="4">
-        <v>230</v>
+        <v>100</v>
       </c>
       <c r="E29" s="4">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F29" s="4">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G29" s="4">
-        <v>160</v>
+        <v>78</v>
       </c>
       <c r="H29" s="4">
         <v>1</v>
       </c>
       <c r="I29" s="4">
-        <f t="shared" si="6"/>
-        <v>-502.85714285714283</v>
+        <f t="shared" si="10"/>
+        <v>665</v>
       </c>
       <c r="J29" s="4">
-        <f t="shared" si="7"/>
-        <v>640</v>
+        <f t="shared" si="11"/>
+        <v>118.125</v>
       </c>
       <c r="K29" s="4">
         <v>4</v>
@@ -2766,39 +2901,39 @@
     </row>
     <row r="30" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B30" s="4">
-        <v>550</v>
+        <v>190</v>
       </c>
       <c r="C30" s="4">
-        <v>310</v>
+        <v>370</v>
       </c>
       <c r="D30" s="4">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="E30" s="4">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F30" s="4">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G30" s="4">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="H30" s="4">
         <v>1</v>
       </c>
       <c r="I30" s="4">
-        <f t="shared" ref="I30:I37" si="8">B30/($M$11-D30)*(C30-$N$11)</f>
-        <v>171.875</v>
+        <f t="shared" si="10"/>
+        <v>997.5</v>
       </c>
       <c r="J30" s="4">
-        <f t="shared" ref="J30:J37" si="9">B30/($M$12-D30)*(C30-$N$12)</f>
-        <v>-144.73684210526315</v>
+        <f t="shared" si="11"/>
+        <v>149.28571428571431</v>
       </c>
       <c r="K30" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L30" s="3"/>
       <c r="M30" s="3"/>
@@ -2807,39 +2942,39 @@
     </row>
     <row r="31" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B31" s="4">
-        <v>500</v>
+        <v>230</v>
       </c>
       <c r="C31" s="4">
-        <v>360</v>
+        <v>440</v>
       </c>
       <c r="D31" s="4">
-        <v>140</v>
+        <v>75</v>
       </c>
       <c r="E31" s="4">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F31" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="G31" s="4">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H31" s="4">
         <v>1</v>
       </c>
       <c r="I31" s="4">
-        <f t="shared" si="8"/>
-        <v>416.66666666666669</v>
+        <f t="shared" si="10"/>
+        <v>757.64705882352951</v>
       </c>
       <c r="J31" s="4">
-        <f t="shared" si="9"/>
-        <v>-51.020408163265309</v>
+        <f t="shared" si="11"/>
+        <v>223.78378378378378</v>
       </c>
       <c r="K31" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L31" s="3"/>
       <c r="M31" s="3"/>
@@ -2848,22 +2983,22 @@
     </row>
     <row r="32" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="B32" s="4">
-        <v>250</v>
+        <v>180</v>
       </c>
       <c r="C32" s="4">
-        <v>420</v>
+        <v>410</v>
       </c>
       <c r="D32" s="4">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E32" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="F32" s="4">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G32" s="4">
         <v>110</v>
@@ -2872,15 +3007,15 @@
         <v>1</v>
       </c>
       <c r="I32" s="4">
-        <f t="shared" si="8"/>
-        <v>666.66666666666674</v>
+        <f t="shared" si="10"/>
+        <v>-1500</v>
       </c>
       <c r="J32" s="4">
-        <f t="shared" si="9"/>
-        <v>47.297297297297298</v>
+        <f t="shared" si="11"/>
+        <v>385.71428571428572</v>
       </c>
       <c r="K32" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L32" s="3"/>
       <c r="M32" s="3"/>
@@ -2889,39 +3024,39 @@
     </row>
     <row r="33" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B33" s="4">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="C33" s="4">
-        <v>400</v>
+        <v>380</v>
       </c>
       <c r="D33" s="4">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="E33" s="4">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="F33" s="4">
+        <v>9</v>
+      </c>
+      <c r="G33" s="4">
+        <v>160</v>
+      </c>
+      <c r="H33" s="4">
+        <v>1</v>
+      </c>
+      <c r="I33" s="4">
+        <f t="shared" si="10"/>
+        <v>-502.85714285714283</v>
+      </c>
+      <c r="J33" s="4">
+        <f t="shared" si="11"/>
+        <v>640</v>
+      </c>
+      <c r="K33" s="4">
         <v>4</v>
-      </c>
-      <c r="G33" s="4">
-        <v>125</v>
-      </c>
-      <c r="H33" s="4">
-        <v>1</v>
-      </c>
-      <c r="I33" s="4">
-        <f t="shared" si="8"/>
-        <v>1120</v>
-      </c>
-      <c r="J33" s="4">
-        <f t="shared" si="9"/>
-        <v>34.285714285714285</v>
-      </c>
-      <c r="K33" s="4">
-        <v>5</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="3"/>
@@ -2930,39 +3065,39 @@
     </row>
     <row r="34" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B34" s="4">
-        <v>480</v>
+        <v>800</v>
       </c>
       <c r="C34" s="4">
-        <v>450</v>
+        <v>420</v>
       </c>
       <c r="D34" s="4">
-        <v>165</v>
-      </c>
-      <c r="E34" s="4">
-        <v>5</v>
-      </c>
-      <c r="F34" s="4">
-        <v>5</v>
+        <v>200</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>79</v>
       </c>
       <c r="G34" s="4">
-        <v>133</v>
+        <v>233</v>
       </c>
       <c r="H34" s="4">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="I34" s="4">
-        <f t="shared" si="8"/>
-        <v>960</v>
+        <f>B34/($M$11-D34)*(C34-$N$11)</f>
+        <v>-5200</v>
       </c>
       <c r="J34" s="4">
-        <f t="shared" si="9"/>
-        <v>141.81818181818181</v>
+        <f t="shared" ref="J34" si="12">B34/($M$13-D34)*(C34-$N$13)</f>
+        <v>2133.3333333333335</v>
       </c>
       <c r="K34" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="3"/>
@@ -2971,36 +3106,36 @@
     </row>
     <row r="35" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B35" s="4">
-        <v>300</v>
+        <v>550</v>
       </c>
       <c r="C35" s="4">
-        <v>600</v>
+        <v>310</v>
       </c>
       <c r="D35" s="4">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="E35" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G35" s="4">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="H35" s="4">
         <v>1</v>
       </c>
       <c r="I35" s="4">
-        <f t="shared" si="8"/>
-        <v>536.84210526315792</v>
+        <f>B35/($M$13-D35)*(C35-$N$13)</f>
+        <v>171.875</v>
       </c>
       <c r="J35" s="4">
-        <f t="shared" si="9"/>
-        <v>204.76190476190476</v>
+        <f>B35/($M$14-D35)*(C35-$N$14)</f>
+        <v>-144.73684210526315</v>
       </c>
       <c r="K35" s="4">
         <v>5</v>
@@ -3012,36 +3147,36 @@
     </row>
     <row r="36" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B36" s="4">
-        <v>1000</v>
+        <v>500</v>
       </c>
       <c r="C36" s="4">
-        <v>560</v>
+        <v>360</v>
       </c>
       <c r="D36" s="4">
-        <v>60</v>
+        <v>140</v>
       </c>
       <c r="E36" s="4">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="F36" s="4">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G36" s="4">
-        <v>152</v>
+        <v>100</v>
       </c>
       <c r="H36" s="4">
         <v>1</v>
       </c>
       <c r="I36" s="4">
-        <f t="shared" si="8"/>
-        <v>1500</v>
+        <f t="shared" ref="I36:I44" si="13">B36/($M$13-D36)*(C36-$N$13)</f>
+        <v>416.66666666666669</v>
       </c>
       <c r="J36" s="4">
-        <f t="shared" si="9"/>
-        <v>538.46153846153845</v>
+        <f t="shared" ref="J36:J44" si="14">B36/($M$14-D36)*(C36-$N$14)</f>
+        <v>-51.020408163265309</v>
       </c>
       <c r="K36" s="4">
         <v>5</v>
@@ -3053,36 +3188,36 @@
     </row>
     <row r="37" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B37" s="4">
-        <v>100</v>
+        <v>250</v>
       </c>
       <c r="C37" s="4">
-        <v>500</v>
+        <v>420</v>
       </c>
       <c r="D37" s="4">
-        <v>350</v>
+        <v>200</v>
       </c>
       <c r="E37" s="4">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F37" s="4">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G37" s="4">
-        <v>180</v>
+        <v>110</v>
       </c>
       <c r="H37" s="4">
         <v>1</v>
       </c>
       <c r="I37" s="4">
-        <f t="shared" si="8"/>
-        <v>-266.66666666666669</v>
+        <f t="shared" si="13"/>
+        <v>666.66666666666674</v>
       </c>
       <c r="J37" s="4">
-        <f t="shared" si="9"/>
-        <v>328.57142857142856</v>
+        <f t="shared" si="14"/>
+        <v>47.297297297297298</v>
       </c>
       <c r="K37" s="4">
         <v>5</v>
@@ -3094,26 +3229,40 @@
     </row>
     <row r="38" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B38" s="4">
-        <v>120</v>
+        <v>400</v>
       </c>
       <c r="C38" s="4">
-        <v>150</v>
+        <v>400</v>
       </c>
       <c r="D38" s="4">
-        <v>50</v>
-      </c>
-      <c r="E38" s="3"/>
-      <c r="F38" s="3"/>
+        <v>210</v>
+      </c>
+      <c r="E38" s="4">
+        <v>6</v>
+      </c>
+      <c r="F38" s="4">
+        <v>4</v>
+      </c>
       <c r="G38" s="4">
-        <v>100</v>
-      </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="3"/>
-      <c r="J38" s="3"/>
-      <c r="K38" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="H38" s="4">
+        <v>1</v>
+      </c>
+      <c r="I38" s="4">
+        <f t="shared" si="13"/>
+        <v>1120</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="14"/>
+        <v>34.285714285714285</v>
+      </c>
+      <c r="K38" s="4">
+        <v>5</v>
+      </c>
       <c r="L38" s="3"/>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
@@ -3121,26 +3270,40 @@
     </row>
     <row r="39" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B39" s="4">
-        <v>800</v>
+        <v>480</v>
       </c>
       <c r="C39" s="4">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="D39" s="4">
-        <v>100</v>
-      </c>
-      <c r="E39" s="3"/>
-      <c r="F39" s="3"/>
+        <v>165</v>
+      </c>
+      <c r="E39" s="4">
+        <v>5</v>
+      </c>
+      <c r="F39" s="4">
+        <v>5</v>
+      </c>
       <c r="G39" s="4">
-        <v>500</v>
-      </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="3"/>
-      <c r="J39" s="3"/>
-      <c r="K39" s="3"/>
+        <v>133</v>
+      </c>
+      <c r="H39" s="4">
+        <v>1</v>
+      </c>
+      <c r="I39" s="4">
+        <f t="shared" si="13"/>
+        <v>960</v>
+      </c>
+      <c r="J39" s="4">
+        <f t="shared" si="14"/>
+        <v>141.81818181818181</v>
+      </c>
+      <c r="K39" s="4">
+        <v>5</v>
+      </c>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
@@ -3148,26 +3311,40 @@
     </row>
     <row r="40" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B40" s="4">
-        <v>4500</v>
+        <v>300</v>
       </c>
       <c r="C40" s="4">
-        <v>560</v>
+        <v>600</v>
       </c>
       <c r="D40" s="4">
-        <v>310</v>
-      </c>
-      <c r="E40" s="3"/>
-      <c r="F40" s="3"/>
+        <v>70</v>
+      </c>
+      <c r="E40" s="4">
+        <v>3</v>
+      </c>
+      <c r="F40" s="4">
+        <v>5</v>
+      </c>
       <c r="G40" s="4">
-        <v>1000</v>
-      </c>
-      <c r="H40" s="3"/>
-      <c r="I40" s="3"/>
-      <c r="J40" s="3"/>
-      <c r="K40" s="3"/>
+        <v>130</v>
+      </c>
+      <c r="H40" s="4">
+        <v>1</v>
+      </c>
+      <c r="I40" s="4">
+        <f t="shared" si="13"/>
+        <v>536.84210526315792</v>
+      </c>
+      <c r="J40" s="4">
+        <f t="shared" si="14"/>
+        <v>204.76190476190476</v>
+      </c>
+      <c r="K40" s="4">
+        <v>5</v>
+      </c>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
@@ -3175,18 +3352,40 @@
     </row>
     <row r="41" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B41" s="3"/>
-      <c r="C41" s="3"/>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="3"/>
-      <c r="G41" s="3"/>
-      <c r="H41" s="3"/>
-      <c r="I41" s="3"/>
-      <c r="J41" s="3"/>
-      <c r="K41" s="3"/>
+        <v>51</v>
+      </c>
+      <c r="B41" s="4">
+        <v>1000</v>
+      </c>
+      <c r="C41" s="4">
+        <v>560</v>
+      </c>
+      <c r="D41" s="4">
+        <v>60</v>
+      </c>
+      <c r="E41" s="4">
+        <v>7</v>
+      </c>
+      <c r="F41" s="4">
+        <v>8</v>
+      </c>
+      <c r="G41" s="4">
+        <v>152</v>
+      </c>
+      <c r="H41" s="4">
+        <v>1</v>
+      </c>
+      <c r="I41" s="4">
+        <f t="shared" si="13"/>
+        <v>1500</v>
+      </c>
+      <c r="J41" s="4">
+        <f t="shared" si="14"/>
+        <v>538.46153846153845</v>
+      </c>
+      <c r="K41" s="4">
+        <v>5</v>
+      </c>
       <c r="L41" s="3"/>
       <c r="M41" s="3"/>
       <c r="N41" s="3"/>
@@ -3194,18 +3393,40 @@
     </row>
     <row r="42" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B42" s="3"/>
-      <c r="C42" s="3"/>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="3"/>
-      <c r="G42" s="3"/>
-      <c r="H42" s="3"/>
-      <c r="I42" s="3"/>
-      <c r="J42" s="3"/>
-      <c r="K42" s="3"/>
+        <v>52</v>
+      </c>
+      <c r="B42" s="4">
+        <v>100</v>
+      </c>
+      <c r="C42" s="4">
+        <v>500</v>
+      </c>
+      <c r="D42" s="4">
+        <v>350</v>
+      </c>
+      <c r="E42" s="4">
+        <v>10</v>
+      </c>
+      <c r="F42" s="4">
+        <v>8</v>
+      </c>
+      <c r="G42" s="4">
+        <v>180</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1</v>
+      </c>
+      <c r="I42" s="4">
+        <f t="shared" si="13"/>
+        <v>-266.66666666666669</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="14"/>
+        <v>328.57142857142856</v>
+      </c>
+      <c r="K42" s="3">
+        <v>5</v>
+      </c>
       <c r="L42" s="3"/>
       <c r="M42" s="3"/>
       <c r="N42" s="3"/>
@@ -3213,18 +3434,40 @@
     </row>
     <row r="43" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B43" s="3"/>
-      <c r="C43" s="3"/>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
-      <c r="F43" s="3"/>
-      <c r="G43" s="3"/>
-      <c r="H43" s="3"/>
-      <c r="I43" s="3"/>
-      <c r="J43" s="3"/>
-      <c r="K43" s="3"/>
+        <v>54</v>
+      </c>
+      <c r="B43" s="4">
+        <v>2500</v>
+      </c>
+      <c r="C43" s="4">
+        <v>800</v>
+      </c>
+      <c r="D43" s="4">
+        <v>100</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G43" s="4">
+        <v>500</v>
+      </c>
+      <c r="H43" s="3">
+        <v>10</v>
+      </c>
+      <c r="I43" s="4">
+        <f t="shared" si="13"/>
+        <v>8437.5</v>
+      </c>
+      <c r="J43" s="4">
+        <f t="shared" si="14"/>
+        <v>3640.3508771929828</v>
+      </c>
+      <c r="K43" s="3">
+        <v>5</v>
+      </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3"/>
@@ -3232,17 +3475,31 @@
     </row>
     <row r="44" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
+        <v>53</v>
+      </c>
+      <c r="B44" s="4">
+        <v>120</v>
+      </c>
+      <c r="C44" s="4">
+        <v>150</v>
+      </c>
+      <c r="D44" s="4">
+        <v>50</v>
+      </c>
       <c r="E44" s="3"/>
       <c r="F44" s="3"/>
-      <c r="G44" s="3"/>
+      <c r="G44" s="4">
+        <v>100</v>
+      </c>
       <c r="H44" s="3"/>
-      <c r="I44" s="3"/>
-      <c r="J44" s="3"/>
+      <c r="I44" s="4">
+        <f t="shared" si="13"/>
+        <v>-62.857142857142854</v>
+      </c>
+      <c r="J44" s="4">
+        <f t="shared" si="14"/>
+        <v>-84.179104477611929</v>
+      </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
@@ -3251,7 +3508,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3270,7 +3527,7 @@
     </row>
     <row r="46" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3289,7 +3546,7 @@
     </row>
     <row r="47" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3308,7 +3565,7 @@
     </row>
     <row r="48" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3327,7 +3584,7 @@
     </row>
     <row r="49" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3346,7 +3603,7 @@
     </row>
     <row r="50" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3365,7 +3622,7 @@
     </row>
     <row r="51" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3384,7 +3641,7 @@
     </row>
     <row r="52" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3403,7 +3660,7 @@
     </row>
     <row r="53" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -3422,7 +3679,7 @@
     </row>
     <row r="54" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3441,7 +3698,7 @@
     </row>
     <row r="55" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3458,6 +3715,78 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
     </row>
+    <row r="56" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="2"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
+      <c r="F56" s="3"/>
+      <c r="G56" s="3"/>
+      <c r="H56" s="3"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="3"/>
+      <c r="K56" s="3"/>
+      <c r="L56" s="3"/>
+      <c r="M56" s="3"/>
+      <c r="N56" s="3"/>
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="2"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" s="3"/>
+      <c r="G57" s="3"/>
+      <c r="H57" s="3"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="3"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+    </row>
+    <row r="58" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+      <c r="E58" s="3"/>
+      <c r="F58" s="3"/>
+      <c r="G58" s="3"/>
+      <c r="H58" s="3"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="3"/>
+      <c r="K58" s="3"/>
+      <c r="L58" s="3"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+    </row>
+    <row r="59" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+      <c r="E59" s="3"/>
+      <c r="F59" s="3"/>
+      <c r="G59" s="3"/>
+      <c r="H59" s="3"/>
+      <c r="I59" s="3"/>
+      <c r="J59" s="3"/>
+      <c r="K59" s="3"/>
+      <c r="L59" s="3"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/__data__/monster_data_analysis.xlsx
+++ b/__data__/monster_data_analysis.xlsx
@@ -1610,8 +1610,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="G43" sqref="G43"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F4" sqref="A1:O55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1785,10 +1785,10 @@
         <v>3</v>
       </c>
       <c r="E4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G4" s="4">
         <v>13</v>
@@ -1837,10 +1837,10 @@
         <v>8</v>
       </c>
       <c r="E5" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F5" s="4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G5" s="4">
         <v>22</v>
@@ -1889,10 +1889,10 @@
         <v>15</v>
       </c>
       <c r="E6" s="4">
+        <v>7</v>
+      </c>
+      <c r="F6" s="4">
         <v>6</v>
-      </c>
-      <c r="F6" s="4">
-        <v>5</v>
       </c>
       <c r="G6" s="4">
         <v>27</v>
@@ -1930,10 +1930,10 @@
         <v>6</v>
       </c>
       <c r="E7" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F7" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G7" s="4">
         <v>24</v>
@@ -1975,10 +1975,10 @@
         <v>12</v>
       </c>
       <c r="E8" s="4">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="F8" s="4">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="4">
         <v>32</v>

--- a/__data__/monster_data_analysis.xlsx
+++ b/__data__/monster_data_analysis.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python workspace\magic_tower_infinity\Magic_tower_infinite\__data__\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\python_workspace\magic_tower_infinity\Magic_tower_infinite\__data__\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>Monster</t>
   </si>
@@ -91,9 +91,6 @@
   </si>
   <si>
     <t>Skeleton A</t>
-  </si>
-  <si>
-    <t>??</t>
   </si>
   <si>
     <t>Big Slime</t>
@@ -256,103 +253,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Knight C</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>?</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>?</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>?</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1610,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="A1:O55"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1705,15 +1606,15 @@
       </c>
       <c r="L2" s="4">
         <f>AVERAGE(B2:B9)</f>
-        <v>48.75</v>
+        <v>51.25</v>
       </c>
       <c r="M2" s="4">
         <f>AVERAGE(C2:C9)</f>
-        <v>35.625</v>
+        <v>35.25</v>
       </c>
       <c r="N2" s="4">
         <f>AVERAGE(D2:D9)</f>
-        <v>8.625</v>
+        <v>8.25</v>
       </c>
       <c r="O2" s="4">
         <v>1</v>
@@ -1809,11 +1710,11 @@
       </c>
       <c r="L4" s="4">
         <f>AVERAGE(B19:B25)</f>
-        <v>200</v>
+        <v>214.28571428571428</v>
       </c>
       <c r="M4" s="4">
         <f>AVERAGE(C19:C23,C25)</f>
-        <v>175</v>
+        <v>171.66666666666666</v>
       </c>
       <c r="N4" s="4">
         <f>AVERAGE(D19:D25)</f>
@@ -1861,7 +1762,7 @@
       </c>
       <c r="L5" s="4">
         <f>AVERAGE(B27:B32)</f>
-        <v>220</v>
+        <v>230</v>
       </c>
       <c r="M5" s="4">
         <f>AVERAGE(C27:C32)</f>
@@ -1869,7 +1770,7 @@
       </c>
       <c r="N5" s="4">
         <f>AVERAGE(D27:D32)</f>
-        <v>95.833333333333329</v>
+        <v>94.166666666666671</v>
       </c>
       <c r="O5" s="4">
         <v>4</v>
@@ -1877,16 +1778,16 @@
     </row>
     <row r="6" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B6" s="4">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="C6" s="4">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D6" s="4">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4">
         <v>7</v>
@@ -1902,11 +1803,11 @@
       </c>
       <c r="I6" s="4">
         <f t="shared" si="0"/>
-        <v>-300</v>
+        <v>-880</v>
       </c>
       <c r="J6" s="4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>-10.434782608695652</v>
       </c>
       <c r="K6" s="4">
         <v>1</v>
@@ -2068,11 +1969,11 @@
       <c r="D10" s="4">
         <v>15</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>24</v>
+      <c r="E10" s="6">
+        <v>100</v>
+      </c>
+      <c r="F10" s="6">
+        <v>100</v>
       </c>
       <c r="G10" s="4">
         <v>100</v>
@@ -2104,7 +2005,7 @@
     </row>
     <row r="11" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="4">
         <v>130</v>
@@ -2151,7 +2052,7 @@
     </row>
     <row r="12" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B12" s="4">
         <v>170</v>
@@ -2192,7 +2093,7 @@
     </row>
     <row r="13" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="4">
         <v>60</v>
@@ -2239,7 +2140,7 @@
     </row>
     <row r="14" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B14" s="4">
         <v>100</v>
@@ -2281,12 +2182,12 @@
         <v>385</v>
       </c>
       <c r="O14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4">
         <v>260</v>
@@ -2327,7 +2228,7 @@
     </row>
     <row r="16" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B16" s="4">
         <v>20</v>
@@ -2368,7 +2269,7 @@
     </row>
     <row r="17" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B17" s="4">
         <v>320</v>
@@ -2409,7 +2310,7 @@
     </row>
     <row r="18" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B18" s="4">
         <v>444</v>
@@ -2420,11 +2321,11 @@
       <c r="D18" s="4">
         <v>66</v>
       </c>
-      <c r="E18" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>24</v>
+      <c r="E18" s="6">
+        <v>100</v>
+      </c>
+      <c r="F18" s="6">
+        <v>100</v>
       </c>
       <c r="G18" s="4">
         <v>216</v>
@@ -2450,7 +2351,7 @@
     </row>
     <row r="19" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B19" s="4">
         <v>320</v>
@@ -2491,7 +2392,7 @@
     </row>
     <row r="20" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="4">
         <v>210</v>
@@ -2532,19 +2433,19 @@
     </row>
     <row r="21" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B21" s="4">
-        <v>300</v>
+        <v>400</v>
       </c>
       <c r="C21" s="4">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="D21" s="4">
         <v>10</v>
       </c>
       <c r="E21" s="4">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F21" s="4">
         <v>6</v>
@@ -2557,11 +2458,11 @@
       </c>
       <c r="I21" s="4">
         <f t="shared" ref="I21" si="8">B21/($M$10-D21)*(C21-$N$10)</f>
-        <v>460</v>
+        <v>506.66666666666663</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" ref="J21" si="9">B21/($M$11-D21)*(C21-$N$11)</f>
-        <v>80</v>
+        <v>53.333333333333329</v>
       </c>
       <c r="K21" s="4">
         <v>3</v>
@@ -2573,7 +2474,7 @@
     </row>
     <row r="22" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B22" s="4">
         <v>200</v>
@@ -2614,7 +2515,7 @@
     </row>
     <row r="23" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B23" s="4">
         <v>100</v>
@@ -2655,7 +2556,7 @@
     </row>
     <row r="24" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B24" s="4">
         <v>90</v>
@@ -2696,7 +2597,7 @@
     </row>
     <row r="25" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="4">
         <v>180</v>
@@ -2737,7 +2638,7 @@
     </row>
     <row r="26" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B26" s="4">
         <v>165</v>
@@ -2748,11 +2649,11 @@
       <c r="D26" s="4">
         <v>10</v>
       </c>
-      <c r="E26" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="F26" s="6" t="s">
-        <v>74</v>
+      <c r="E26" s="6">
+        <v>100</v>
+      </c>
+      <c r="F26" s="6">
+        <v>100</v>
       </c>
       <c r="G26" s="4">
         <v>500</v>
@@ -2778,7 +2679,7 @@
     </row>
     <row r="27" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="4">
         <v>320</v>
@@ -2819,7 +2720,7 @@
     </row>
     <row r="28" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28" s="4">
         <v>190</v>
@@ -2860,7 +2761,7 @@
     </row>
     <row r="29" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29" s="4">
         <v>210</v>
@@ -2901,16 +2802,16 @@
     </row>
     <row r="30" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30" s="4">
-        <v>190</v>
+        <v>250</v>
       </c>
       <c r="C30" s="4">
         <v>370</v>
       </c>
       <c r="D30" s="4">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E30" s="4">
         <v>6</v>
@@ -2926,11 +2827,11 @@
       </c>
       <c r="I30" s="4">
         <f t="shared" si="10"/>
-        <v>997.5</v>
+        <v>1050</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="11"/>
-        <v>149.28571428571431</v>
+        <v>183.33333333333334</v>
       </c>
       <c r="K30" s="4">
         <v>4</v>
@@ -2942,7 +2843,7 @@
     </row>
     <row r="31" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31" s="4">
         <v>230</v>
@@ -2983,7 +2884,7 @@
     </row>
     <row r="32" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32" s="4">
         <v>180</v>
@@ -3024,7 +2925,7 @@
     </row>
     <row r="33" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33" s="4">
         <v>160</v>
@@ -3065,7 +2966,7 @@
     </row>
     <row r="34" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B34" s="4">
         <v>800</v>
@@ -3076,11 +2977,11 @@
       <c r="D34" s="4">
         <v>200</v>
       </c>
-      <c r="E34" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F34" s="7" t="s">
-        <v>79</v>
+      <c r="E34" s="7">
+        <v>100</v>
+      </c>
+      <c r="F34" s="7">
+        <v>100</v>
       </c>
       <c r="G34" s="4">
         <v>233</v>
@@ -3106,7 +3007,7 @@
     </row>
     <row r="35" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B35" s="4">
         <v>550</v>
@@ -3147,7 +3048,7 @@
     </row>
     <row r="36" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B36" s="4">
         <v>500</v>
@@ -3188,7 +3089,7 @@
     </row>
     <row r="37" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B37" s="4">
         <v>250</v>
@@ -3229,7 +3130,7 @@
     </row>
     <row r="38" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B38" s="4">
         <v>400</v>
@@ -3270,7 +3171,7 @@
     </row>
     <row r="39" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B39" s="4">
         <v>480</v>
@@ -3311,7 +3212,7 @@
     </row>
     <row r="40" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A40" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B40" s="4">
         <v>300</v>
@@ -3352,7 +3253,7 @@
     </row>
     <row r="41" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A41" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B41" s="4">
         <v>1000</v>
@@ -3393,7 +3294,7 @@
     </row>
     <row r="42" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B42" s="4">
         <v>100</v>
@@ -3434,7 +3335,7 @@
     </row>
     <row r="43" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A43" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43" s="4">
         <v>2500</v>
@@ -3445,11 +3346,11 @@
       <c r="D43" s="4">
         <v>100</v>
       </c>
-      <c r="E43" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F43" s="7" t="s">
-        <v>77</v>
+      <c r="E43" s="7">
+        <v>100</v>
+      </c>
+      <c r="F43" s="7">
+        <v>100</v>
       </c>
       <c r="G43" s="4">
         <v>500</v>
@@ -3475,7 +3376,7 @@
     </row>
     <row r="44" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B44" s="4">
         <v>120</v>
@@ -3508,7 +3409,7 @@
     </row>
     <row r="45" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
@@ -3527,7 +3428,7 @@
     </row>
     <row r="46" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A46" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46" s="3"/>
       <c r="C46" s="3"/>
@@ -3546,7 +3447,7 @@
     </row>
     <row r="47" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A47" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
@@ -3565,7 +3466,7 @@
     </row>
     <row r="48" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A48" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
@@ -3584,7 +3485,7 @@
     </row>
     <row r="49" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A49" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
@@ -3603,7 +3504,7 @@
     </row>
     <row r="50" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A50" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
@@ -3622,7 +3523,7 @@
     </row>
     <row r="51" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
@@ -3641,7 +3542,7 @@
     </row>
     <row r="52" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
@@ -3660,7 +3561,7 @@
     </row>
     <row r="53" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A53" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
@@ -3679,7 +3580,7 @@
     </row>
     <row r="54" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A54" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
@@ -3698,7 +3599,7 @@
     </row>
     <row r="55" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A55" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
@@ -3751,7 +3652,7 @@
     </row>
     <row r="58" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A58" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
@@ -3770,7 +3671,7 @@
     </row>
     <row r="59" spans="1:15" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>

--- a/__data__/monster_data_analysis.xlsx
+++ b/__data__/monster_data_analysis.xlsx
@@ -1511,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IV59"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A14" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1710,7 +1710,7 @@
       </c>
       <c r="L4" s="4">
         <f>AVERAGE(B19:B25)</f>
-        <v>214.28571428571428</v>
+        <v>223.57142857142858</v>
       </c>
       <c r="M4" s="4">
         <f>AVERAGE(C19:C23,C25)</f>
@@ -1718,7 +1718,7 @@
       </c>
       <c r="N4" s="4">
         <f>AVERAGE(D19:D25)</f>
-        <v>53.571428571428569</v>
+        <v>57.857142857142854</v>
       </c>
       <c r="O4" s="4">
         <v>3</v>
@@ -1762,7 +1762,7 @@
       </c>
       <c r="L5" s="4">
         <f>AVERAGE(B27:B32)</f>
-        <v>230</v>
+        <v>273.33333333333331</v>
       </c>
       <c r="M5" s="4">
         <f>AVERAGE(C27:C32)</f>
@@ -1961,13 +1961,13 @@
         <v>23</v>
       </c>
       <c r="B10" s="4">
-        <v>100</v>
+        <v>111</v>
       </c>
       <c r="C10" s="4">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="D10" s="4">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E10" s="6">
         <v>100</v>
@@ -1983,11 +1983,11 @@
       </c>
       <c r="I10" s="4">
         <f t="shared" si="0"/>
-        <v>-1100</v>
+        <v>-518</v>
       </c>
       <c r="J10" s="4">
         <f t="shared" si="1"/>
-        <v>150</v>
+        <v>499.5</v>
       </c>
       <c r="K10" s="4">
         <v>1</v>
@@ -2319,7 +2319,7 @@
         <v>199</v>
       </c>
       <c r="D18" s="4">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="E18" s="6">
         <v>100</v>
@@ -2335,11 +2335,11 @@
       </c>
       <c r="I18" s="4">
         <f t="shared" si="2"/>
-        <v>-2348.9032258064517</v>
+        <v>-3640.7999999999997</v>
       </c>
       <c r="J18" s="4">
         <f t="shared" si="3"/>
-        <v>2664</v>
+        <v>1687.2</v>
       </c>
       <c r="K18" s="4">
         <v>2</v>
@@ -2395,13 +2395,13 @@
         <v>33</v>
       </c>
       <c r="B20" s="4">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C20" s="4">
         <v>150</v>
       </c>
       <c r="D20" s="4">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="E20" s="4">
         <v>3</v>
@@ -2417,11 +2417,11 @@
       </c>
       <c r="I20" s="4">
         <f t="shared" si="6"/>
-        <v>248.18181818181819</v>
+        <v>317.77777777777783</v>
       </c>
       <c r="J20" s="4">
         <f t="shared" si="7"/>
-        <v>-16.153846153846153</v>
+        <v>-18.333333333333332</v>
       </c>
       <c r="K20" s="4">
         <v>3</v>
@@ -2436,7 +2436,7 @@
         <v>71</v>
       </c>
       <c r="B21" s="4">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="C21" s="4">
         <v>180</v>
@@ -2458,11 +2458,11 @@
       </c>
       <c r="I21" s="4">
         <f t="shared" ref="I21" si="8">B21/($M$10-D21)*(C21-$N$10)</f>
-        <v>506.66666666666663</v>
+        <v>570</v>
       </c>
       <c r="J21" s="4">
         <f t="shared" ref="J21" si="9">B21/($M$11-D21)*(C21-$N$11)</f>
-        <v>53.333333333333329</v>
+        <v>60</v>
       </c>
       <c r="K21" s="4">
         <v>3</v>
@@ -2524,7 +2524,7 @@
         <v>180</v>
       </c>
       <c r="D23" s="4">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="E23" s="4">
         <v>8</v>
@@ -2540,11 +2540,11 @@
       </c>
       <c r="I23" s="4">
         <f t="shared" si="6"/>
-        <v>-380</v>
+        <v>-271.42857142857144</v>
       </c>
       <c r="J23" s="4">
         <f t="shared" si="7"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="K23" s="4">
         <v>3</v>
@@ -2559,7 +2559,7 @@
         <v>68</v>
       </c>
       <c r="B24" s="4">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="C24" s="4">
         <v>680</v>
@@ -2581,11 +2581,11 @@
       </c>
       <c r="I24" s="4">
         <f t="shared" si="6"/>
-        <v>1530</v>
+        <v>1615</v>
       </c>
       <c r="J24" s="4">
         <f t="shared" si="7"/>
-        <v>425.4545454545455</v>
+        <v>449.09090909090912</v>
       </c>
       <c r="K24" s="4">
         <v>3</v>
@@ -2606,7 +2606,7 @@
         <v>210</v>
       </c>
       <c r="D25" s="4">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E25" s="4">
         <v>9</v>
@@ -2622,11 +2622,11 @@
       </c>
       <c r="I25" s="4">
         <f t="shared" si="6"/>
-        <v>-1500</v>
+        <v>-900</v>
       </c>
       <c r="J25" s="4">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>180</v>
       </c>
       <c r="K25" s="4">
         <v>3</v>
@@ -2682,10 +2682,10 @@
         <v>37</v>
       </c>
       <c r="B27" s="4">
-        <v>320</v>
+        <v>350</v>
       </c>
       <c r="C27" s="4">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="D27" s="4">
         <v>10</v>
@@ -2704,11 +2704,11 @@
       </c>
       <c r="I27" s="4">
         <f t="shared" ref="I27:I33" si="10">B27/($M$11-D27)*(C27-$N$11)</f>
-        <v>234.66666666666666</v>
+        <v>280</v>
       </c>
       <c r="J27" s="4">
         <f t="shared" ref="J27:J33" si="11">B27/($M$13-D27)*(C27-$N$13)</f>
-        <v>12.8</v>
+        <v>28</v>
       </c>
       <c r="K27" s="4">
         <v>4</v>
@@ -2723,10 +2723,10 @@
         <v>38</v>
       </c>
       <c r="B28" s="4">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="C28" s="4">
-        <v>360</v>
+        <v>370</v>
       </c>
       <c r="D28" s="4">
         <v>80</v>
@@ -2745,11 +2745,11 @@
       </c>
       <c r="I28" s="4">
         <f t="shared" si="10"/>
-        <v>475</v>
+        <v>525</v>
       </c>
       <c r="J28" s="4">
         <f t="shared" si="11"/>
-        <v>105.55555555555556</v>
+        <v>122.22222222222223</v>
       </c>
       <c r="K28" s="4">
         <v>4</v>
@@ -2764,10 +2764,10 @@
         <v>39</v>
       </c>
       <c r="B29" s="4">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="C29" s="4">
-        <v>350</v>
+        <v>360</v>
       </c>
       <c r="D29" s="4">
         <v>100</v>
@@ -2786,11 +2786,11 @@
       </c>
       <c r="I29" s="4">
         <f t="shared" si="10"/>
-        <v>665</v>
+        <v>733.33333333333326</v>
       </c>
       <c r="J29" s="4">
         <f t="shared" si="11"/>
-        <v>118.125</v>
+        <v>137.5</v>
       </c>
       <c r="K29" s="4">
         <v>4</v>
@@ -2808,7 +2808,7 @@
         <v>250</v>
       </c>
       <c r="C30" s="4">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="D30" s="4">
         <v>110</v>
@@ -2827,11 +2827,11 @@
       </c>
       <c r="I30" s="4">
         <f t="shared" si="10"/>
-        <v>1050</v>
+        <v>1200</v>
       </c>
       <c r="J30" s="4">
         <f t="shared" si="11"/>
-        <v>183.33333333333334</v>
+        <v>233.33333333333334</v>
       </c>
       <c r="K30" s="4">
         <v>4</v>
@@ -2846,13 +2846,13 @@
         <v>41</v>
       </c>
       <c r="B31" s="4">
-        <v>230</v>
+        <v>440</v>
       </c>
       <c r="C31" s="4">
-        <v>440</v>
+        <v>380</v>
       </c>
       <c r="D31" s="4">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E31" s="4">
         <v>5</v>
@@ -2868,11 +2868,11 @@
       </c>
       <c r="I31" s="4">
         <f t="shared" si="10"/>
-        <v>757.64705882352951</v>
+        <v>1018.9473684210527</v>
       </c>
       <c r="J31" s="4">
         <f t="shared" si="11"/>
-        <v>223.78378378378378</v>
+        <v>270.76923076923077</v>
       </c>
       <c r="K31" s="4">
         <v>4</v>
@@ -2893,7 +2893,7 @@
         <v>410</v>
       </c>
       <c r="D32" s="4">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="E32" s="4">
         <v>8</v>
@@ -2909,11 +2909,11 @@
       </c>
       <c r="I32" s="4">
         <f t="shared" si="10"/>
-        <v>-1500</v>
+        <v>-1125</v>
       </c>
       <c r="J32" s="4">
         <f t="shared" si="11"/>
-        <v>385.71428571428572</v>
+        <v>450</v>
       </c>
       <c r="K32" s="4">
         <v>4</v>
@@ -2928,10 +2928,10 @@
         <v>43</v>
       </c>
       <c r="B33" s="4">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="C33" s="4">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="D33" s="4">
         <v>230</v>
@@ -2950,11 +2950,11 @@
       </c>
       <c r="I33" s="4">
         <f t="shared" si="10"/>
-        <v>-502.85714285714283</v>
+        <v>-546.42857142857133</v>
       </c>
       <c r="J33" s="4">
         <f t="shared" si="11"/>
-        <v>640</v>
+        <v>708.33333333333337</v>
       </c>
       <c r="K33" s="4">
         <v>4</v>
@@ -3013,10 +3013,10 @@
         <v>550</v>
       </c>
       <c r="C35" s="4">
-        <v>310</v>
+        <v>320</v>
       </c>
       <c r="D35" s="4">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="E35" s="4">
         <v>1</v>
@@ -3032,11 +3032,11 @@
       </c>
       <c r="I35" s="4">
         <f>B35/($M$13-D35)*(C35-$N$13)</f>
-        <v>171.875</v>
+        <v>220</v>
       </c>
       <c r="J35" s="4">
         <f>B35/($M$14-D35)*(C35-$N$14)</f>
-        <v>-144.73684210526315</v>
+        <v>-130</v>
       </c>
       <c r="K35" s="4">
         <v>5</v>
@@ -3095,7 +3095,7 @@
         <v>250</v>
       </c>
       <c r="C37" s="4">
-        <v>420</v>
+        <v>444</v>
       </c>
       <c r="D37" s="4">
         <v>200</v>
@@ -3114,11 +3114,11 @@
       </c>
       <c r="I37" s="4">
         <f t="shared" si="13"/>
-        <v>666.66666666666674</v>
+        <v>766.66666666666674</v>
       </c>
       <c r="J37" s="4">
         <f t="shared" si="14"/>
-        <v>47.297297297297298</v>
+        <v>79.729729729729726</v>
       </c>
       <c r="K37" s="4">
         <v>5</v>
@@ -3139,7 +3139,7 @@
         <v>400</v>
       </c>
       <c r="D38" s="4">
-        <v>210</v>
+        <v>230</v>
       </c>
       <c r="E38" s="4">
         <v>6</v>
@@ -3155,11 +3155,11 @@
       </c>
       <c r="I38" s="4">
         <f t="shared" si="13"/>
-        <v>1120</v>
+        <v>1866.6666666666667</v>
       </c>
       <c r="J38" s="4">
         <f t="shared" si="14"/>
-        <v>34.285714285714285</v>
+        <v>38.70967741935484</v>
       </c>
       <c r="K38" s="4">
         <v>5</v>
@@ -3174,7 +3174,7 @@
         <v>48</v>
       </c>
       <c r="B39" s="4">
-        <v>480</v>
+        <v>500</v>
       </c>
       <c r="C39" s="4">
         <v>450</v>
@@ -3196,11 +3196,11 @@
       </c>
       <c r="I39" s="4">
         <f t="shared" si="13"/>
-        <v>960</v>
+        <v>1000.0000000000001</v>
       </c>
       <c r="J39" s="4">
         <f t="shared" si="14"/>
-        <v>141.81818181818181</v>
+        <v>147.72727272727275</v>
       </c>
       <c r="K39" s="4">
         <v>5</v>
@@ -3215,13 +3215,13 @@
         <v>49</v>
       </c>
       <c r="B40" s="4">
-        <v>300</v>
+        <v>330</v>
       </c>
       <c r="C40" s="4">
         <v>600</v>
       </c>
       <c r="D40" s="4">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="E40" s="4">
         <v>3</v>
@@ -3237,11 +3237,11 @@
       </c>
       <c r="I40" s="4">
         <f t="shared" si="13"/>
-        <v>536.84210526315792</v>
+        <v>623.33333333333326</v>
       </c>
       <c r="J40" s="4">
         <f t="shared" si="14"/>
-        <v>204.76190476190476</v>
+        <v>232.62295081967216</v>
       </c>
       <c r="K40" s="4">
         <v>5</v>
